--- a/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
+++ b/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,9 @@
     <sheet name="Apego a Auditorias Funcionales" sheetId="19" r:id="rId7"/>
     <sheet name="Índice de Satisfacción" sheetId="20" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="125">
   <si>
     <t>Objetivos/Necesidades de Negocio y  Medición</t>
   </si>
@@ -145,9 +148,6 @@
     <t>Desviacion del costo</t>
   </si>
   <si>
-    <t>Auditor</t>
-  </si>
-  <si>
     <t>Conocer cual es el apego y consistencia en la generación y uso de las herramientas de trabajo</t>
   </si>
   <si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>Dirección</t>
-  </si>
-  <si>
-    <t>Soporte TI</t>
   </si>
   <si>
     <t xml:space="preserve">Conocer si los servicios ofrecidos al cliente cumplen con sus espectativas. </t>
@@ -367,15 +364,6 @@
     </r>
   </si>
   <si>
-    <t>Si la desviacion es de 0% a 30%</t>
-  </si>
-  <si>
-    <t>Si la desvacion es mayor al 30% y menor o igual a 65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si la desviación es menor que 0 o Si la desviacion es mayor a 65% </t>
-  </si>
-  <si>
     <t xml:space="preserve">Que el índice de satisfacción sea mayor o igual a 85% </t>
   </si>
   <si>
@@ -416,6 +404,30 @@
   </si>
   <si>
     <t>Ingresar al check list de calidad correspondiente. Tomar el valor ubicado en la pestaña "Resumen" -&gt; seccion Funcionales. Registrar los valores acorde a su orden en el archivo concentrado de metricas pestaña "Funcional"</t>
+  </si>
+  <si>
+    <t>Si la desviacion es de 0% a 10%</t>
+  </si>
+  <si>
+    <t>Si la desvacion es mayor al 10% y menor o igual a 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si la desviación es menor que 0 o Si la desviacion es mayor a 30% </t>
+  </si>
+  <si>
+    <t>Jovanny Zepeda</t>
+  </si>
+  <si>
+    <t>Ingresar a bitrix (ruta de ubicación) tomar las horas registradas para cada sección del ciclo de vida, multiplicarla por el costo en horas dependiendo del puesto (se encuentra ubicada en estimación de proyecto pestaña costo por hora personal), finalmente hacer la sumatoria de los costos por horas de cada etapa y registrarlos en la pestaña desviación costos del concentrado de metricas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar a Bitrix() ,tomar las horas registradas para cada sección del ciclo de vida , registrar el acomulado total en el documento concentrado de metricas pestaña desviación de esfuerzo. </t>
+  </si>
+  <si>
+    <t>Crear plan de acción para aumentar el promedio de satisfacción.</t>
+  </si>
+  <si>
+    <t>calidad</t>
   </si>
 </sst>
 </file>
@@ -969,6 +981,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -983,15 +1004,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1392,11 +1404,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80939648"/>
-        <c:axId val="80949632"/>
+        <c:axId val="84988672"/>
+        <c:axId val="84990208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80939648"/>
+        <c:axId val="84988672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1418,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80949632"/>
+        <c:crossAx val="84990208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1414,7 +1426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80949632"/>
+        <c:axId val="84990208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1440,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80939648"/>
+        <c:crossAx val="84988672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,11 +1776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="81039744"/>
-        <c:axId val="81041280"/>
+        <c:axId val="39489920"/>
+        <c:axId val="39491456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81039744"/>
+        <c:axId val="39489920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1790,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81041280"/>
+        <c:crossAx val="39491456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1786,7 +1798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81041280"/>
+        <c:axId val="39491456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1812,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81039744"/>
+        <c:crossAx val="39489920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1824,6 +1836,469 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Costo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Desviacion de costos'!$C$18:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planeado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Desviacion de costos'!$B$20:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Prospectación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Compras</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Desviacion de costos'!$C$20:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15F3-4939-9302-9660B3AF6930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Desviacion de costos'!$D$18:$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Desviacion de costos'!$B$20:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Prospectación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Compras</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Desviacion de costos'!$D$20:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15F3-4939-9302-9660B3AF6930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110881792"/>
+        <c:axId val="187134720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110881792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187134720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="187134720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110881792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Desviación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Desviacion de costos'!$E$18:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desviación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Desviacion de costos'!$B$20:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Prospectación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Planeación</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Compras</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Implementación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cierre</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Garantia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Soporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Desviacion de costos'!$E$20:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C53-4413-9153-0DEA66086AD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="111411584"/>
+        <c:axId val="111413120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="111411584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111413120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111413120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111411584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2132,11 +2607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="86783872"/>
-        <c:axId val="86785408"/>
+        <c:axId val="39577472"/>
+        <c:axId val="39579008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86783872"/>
+        <c:axId val="39577472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86785408"/>
+        <c:crossAx val="39579008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2154,7 +2629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86785408"/>
+        <c:axId val="39579008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2643,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86783872"/>
+        <c:crossAx val="39577472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2191,7 +2666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2500,11 +2975,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87104512"/>
-        <c:axId val="87147264"/>
+        <c:axId val="39619584"/>
+        <c:axId val="39625472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87104512"/>
+        <c:axId val="39619584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,7 +2989,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87147264"/>
+        <c:crossAx val="39625472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2522,7 +2997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87147264"/>
+        <c:axId val="39625472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +3011,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87104512"/>
+        <c:crossAx val="39619584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2559,7 +3034,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2868,11 +3343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="86876160"/>
-        <c:axId val="86877696"/>
+        <c:axId val="39678336"/>
+        <c:axId val="39679872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86876160"/>
+        <c:axId val="39678336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +3357,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86877696"/>
+        <c:crossAx val="39679872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2890,7 +3365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86877696"/>
+        <c:axId val="39679872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,7 +3379,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86876160"/>
+        <c:crossAx val="39678336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2927,7 +3402,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -3236,11 +3711,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87014400"/>
-        <c:axId val="87020288"/>
+        <c:axId val="39712256"/>
+        <c:axId val="39713792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87014400"/>
+        <c:axId val="39712256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,7 +3725,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87020288"/>
+        <c:crossAx val="39713792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3258,7 +3733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87020288"/>
+        <c:axId val="39713792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3272,7 +3747,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87014400"/>
+        <c:crossAx val="39712256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3357,6 +3832,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2400300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5553075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3511,6 +4062,276 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Desviacion de esfuerzo"/>
+      <sheetName val="Desviacion de costos"/>
+      <sheetName val="Apego a Procesos"/>
+      <sheetName val="Apego a Productos"/>
+      <sheetName val="Física"/>
+      <sheetName val="Funcional"/>
+      <sheetName val="Indice de Satisfacción"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="D19" t="str">
+            <v xml:space="preserve">Real </v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>Desviación</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Prospectación</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Ventas</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Planeación</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Compras</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+          <cell r="E23" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Implementación</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Cierre</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Garantia</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+          <cell r="E26" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Soporte</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>Planeado</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v xml:space="preserve">Real </v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>Desviación</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Prospectación</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Ventas</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Planeación</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Compras</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+          <cell r="E23" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Implementación</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Cierre</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Garantia</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+          <cell r="E26" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Soporte</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3806,7 +4627,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3839,21 +4660,21 @@
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1">
       <c r="B3" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="B4" s="63"/>
       <c r="C4" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
@@ -3864,30 +4685,30 @@
       <c r="A6" s="22"/>
       <c r="B6" s="63"/>
       <c r="C6" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="63"/>
       <c r="C7" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="63"/>
       <c r="C8" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="B9" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3923,25 +4744,29 @@
     <row r="13" spans="1:7" s="5" customFormat="1">
       <c r="A13" s="3"/>
       <c r="B13" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="C14" s="54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="55"/>
-      <c r="E14" s="57"/>
+      <c r="E14" s="57" t="s">
+        <v>120</v>
+      </c>
       <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -4005,15 +4830,15 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="109.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="27" width="11.42578125" style="1"/>
@@ -4035,15 +4860,15 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:3" outlineLevel="1">
       <c r="B3" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
@@ -4075,7 +4900,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
@@ -4086,10 +4911,10 @@
     </row>
     <row r="10" spans="2:3" outlineLevel="1">
       <c r="B10" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
@@ -4099,7 +4924,9 @@
       <c r="C11" s="67"/>
     </row>
     <row r="12" spans="2:3" ht="33.75" customHeight="1" outlineLevel="1">
-      <c r="B12" s="66"/>
+      <c r="B12" s="66" t="s">
+        <v>122</v>
+      </c>
       <c r="C12" s="66"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
@@ -4113,7 +4940,7 @@
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
@@ -4138,52 +4965,52 @@
     </row>
     <row r="18" spans="2:3" outlineLevel="1">
       <c r="B18" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="67"/>
     </row>
     <row r="21" spans="2:3" s="18" customFormat="1" outlineLevel="1">
       <c r="B21" s="65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="65"/>
     </row>
     <row r="22" spans="2:3" outlineLevel="1">
       <c r="B22" s="33" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="34" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30">
       <c r="B24" s="35" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -4364,8 +5191,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4394,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:3" outlineLevel="1">
@@ -4402,7 +5229,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
@@ -4434,7 +5261,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
@@ -4445,10 +5272,10 @@
     </row>
     <row r="10" spans="2:3" outlineLevel="1">
       <c r="B10" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
@@ -4457,8 +5284,10 @@
       </c>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="2:3" ht="24" customHeight="1" outlineLevel="1">
-      <c r="B12" s="66"/>
+    <row r="12" spans="2:3" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="B12" s="66" t="s">
+        <v>121</v>
+      </c>
       <c r="C12" s="66"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
@@ -4472,7 +5301,7 @@
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
@@ -4497,46 +5326,46 @@
     </row>
     <row r="18" spans="2:3" outlineLevel="1">
       <c r="B18" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="67"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="33" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="30">
       <c r="B22" s="34" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="35" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -4717,7 +5546,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4749,10 +5578,10 @@
     </row>
     <row r="3" spans="2:3" ht="18" customHeight="1" outlineLevel="1">
       <c r="B3" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
@@ -4781,21 +5610,21 @@
     </row>
     <row r="8" spans="2:3" outlineLevel="1">
       <c r="B8" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C9" s="72"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="73"/>
     </row>
@@ -4807,7 +5636,7 @@
     </row>
     <row r="12" spans="2:3" ht="37.5" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -4822,7 +5651,7 @@
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
@@ -4842,51 +5671,51 @@
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="30"/>
       <c r="C17" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:3" outlineLevel="1">
       <c r="B18" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="67"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -5067,7 +5896,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5096,15 +5925,15 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:3" outlineLevel="1">
       <c r="B3" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
@@ -5133,23 +5962,23 @@
     </row>
     <row r="8" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B8" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>112</v>
+        <v>41</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="80"/>
+        <v>105</v>
+      </c>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="81"/>
+        <v>106</v>
+      </c>
+      <c r="C10" s="76"/>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
       <c r="B11" s="67" t="s">
@@ -5159,7 +5988,7 @@
     </row>
     <row r="12" spans="2:3" ht="39.75" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -5174,7 +6003,7 @@
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
@@ -5194,51 +6023,51 @@
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="30"/>
       <c r="C17" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:3" outlineLevel="1">
       <c r="B18" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="67"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -5419,7 +6248,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5448,15 +6277,15 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:3" outlineLevel="1">
       <c r="B3" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
@@ -5485,21 +6314,21 @@
     </row>
     <row r="8" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B8" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="52" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C9" s="72"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="73"/>
     </row>
@@ -5511,7 +6340,7 @@
     </row>
     <row r="12" spans="2:3" ht="46.9" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -5526,7 +6355,7 @@
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
@@ -5546,51 +6375,51 @@
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="30"/>
       <c r="C17" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:3" outlineLevel="1">
       <c r="B18" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="67"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -5771,7 +6600,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5800,7 +6629,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:3" outlineLevel="1">
@@ -5808,7 +6637,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
@@ -5837,21 +6666,21 @@
     </row>
     <row r="8" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B8" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="52" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C9" s="72"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="73"/>
     </row>
@@ -5863,7 +6692,7 @@
     </row>
     <row r="12" spans="2:3" ht="45.6" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -5878,7 +6707,7 @@
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
@@ -5898,51 +6727,51 @@
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="30"/>
       <c r="C17" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:3" outlineLevel="1">
       <c r="B18" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="67"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -6120,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6145,7 +6974,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -6153,38 +6982,38 @@
         <v>19</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="79"/>
+    </row>
+    <row r="5" spans="1:21" ht="184.5" customHeight="1">
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="Q6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="76"/>
-    </row>
-    <row r="5" spans="1:21" ht="184.5" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="Q6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="U6" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -6192,10 +7021,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="11">
         <f>AVERAGE(R7:U7)</f>
@@ -6216,13 +7045,13 @@
     </row>
     <row r="8" spans="1:21" ht="30">
       <c r="A8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="Q8" s="11">
         <f>AVERAGE(R8:U8)</f>
@@ -6242,16 +7071,16 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="78"/>
     </row>
     <row r="10" spans="1:21" ht="61.5" customHeight="1">
-      <c r="A10" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="78"/>
+      <c r="A10" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="81"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="48" t="s">
@@ -6264,14 +7093,14 @@
     <row r="12" spans="1:21">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="78"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="48" t="s">
@@ -6284,55 +7113,57 @@
     <row r="15" spans="1:21">
       <c r="A15" s="30"/>
       <c r="B15" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="30"/>
       <c r="B17" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="75"/>
+      <c r="A18" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="78"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="74"/>
+      <c r="A19" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="77"/>
     </row>
     <row r="20" spans="1:2" ht="28.5">
       <c r="A20" s="49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.5">
       <c r="A21" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="30"/>
+        <v>104</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
+++ b/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" activeTab="1"/>
+    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" r:id="rId1"/>
@@ -1404,11 +1404,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84988672"/>
-        <c:axId val="84990208"/>
+        <c:axId val="57043200"/>
+        <c:axId val="57044992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84988672"/>
+        <c:axId val="57043200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1418,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84990208"/>
+        <c:crossAx val="57044992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +1426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84990208"/>
+        <c:axId val="57044992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1440,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84988672"/>
+        <c:crossAx val="57043200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,11 +1776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39489920"/>
-        <c:axId val="39491456"/>
+        <c:axId val="65261568"/>
+        <c:axId val="65263104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39489920"/>
+        <c:axId val="65261568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1790,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39491456"/>
+        <c:crossAx val="65263104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1798,7 +1798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39491456"/>
+        <c:axId val="65263104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1812,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39489920"/>
+        <c:crossAx val="65261568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1836,469 +1836,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t>Costo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Desviacion de costos'!$C$18:$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planeado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Desviacion de costos'!$B$20:$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Prospectación</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Compras</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Desviacion de costos'!$C$20:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-15F3-4939-9302-9660B3AF6930}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Desviacion de costos'!$D$18:$D$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Desviacion de costos'!$B$20:$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Prospectación</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Compras</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Desviacion de costos'!$D$20:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-15F3-4939-9302-9660B3AF6930}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="110881792"/>
-        <c:axId val="187134720"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="110881792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187134720"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="187134720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110881792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Desviación</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]Desviacion de costos'!$E$18:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desviación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'[1]Desviacion de costos'!$B$20:$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Prospectación</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ventas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Planeación</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Compras</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Implementación</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cierre</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Garantia</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Soporte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Desviacion de costos'!$E$20:$E$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C53-4413-9153-0DEA66086AD7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="111411584"/>
-        <c:axId val="111413120"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="111411584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111413120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="111413120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111411584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2607,11 +2144,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39577472"/>
-        <c:axId val="39579008"/>
+        <c:axId val="65312256"/>
+        <c:axId val="65313792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39577472"/>
+        <c:axId val="65312256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +2158,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39579008"/>
+        <c:crossAx val="65313792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2629,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39579008"/>
+        <c:axId val="65313792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2180,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39577472"/>
+        <c:crossAx val="65312256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2666,7 +2203,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -2975,11 +2512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39619584"/>
-        <c:axId val="39625472"/>
+        <c:axId val="76651136"/>
+        <c:axId val="76661120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39619584"/>
+        <c:axId val="76651136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2526,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39625472"/>
+        <c:crossAx val="76661120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +2534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39625472"/>
+        <c:axId val="76661120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +2548,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39619584"/>
+        <c:crossAx val="76651136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3034,7 +2571,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -3343,11 +2880,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39678336"/>
-        <c:axId val="39679872"/>
+        <c:axId val="77090816"/>
+        <c:axId val="77092352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39678336"/>
+        <c:axId val="77090816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3357,7 +2894,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39679872"/>
+        <c:crossAx val="77092352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3365,7 +2902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39679872"/>
+        <c:axId val="77092352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +2916,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39678336"/>
+        <c:crossAx val="77090816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3402,7 +2939,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-MX"/>
@@ -3711,11 +3248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39712256"/>
-        <c:axId val="39713792"/>
+        <c:axId val="79316096"/>
+        <c:axId val="79317632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39712256"/>
+        <c:axId val="79316096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3725,7 +3262,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39713792"/>
+        <c:crossAx val="79317632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3733,7 +3270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39713792"/>
+        <c:axId val="79317632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3747,7 +3284,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39712256"/>
+        <c:crossAx val="79316096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3802,6 +3339,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3072401</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152401" y="762001"/>
+          <a:ext cx="5253625" cy="2114549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3257550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7239000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2070197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="6 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="819150"/>
+          <a:ext cx="3981450" cy="2013047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3837,80 +3450,80 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2400300</xdr:rowOff>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22626</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="952501"/>
+          <a:ext cx="4162425" cy="2432450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>2000251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5553075</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10907</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="4 Gráfico">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333876" y="923925"/>
+          <a:ext cx="3981450" cy="2449307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3950,6 +3563,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3851313</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2371725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152401" y="800101"/>
+          <a:ext cx="6032537" cy="2371724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4514850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8315325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2349279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="714375"/>
+          <a:ext cx="3800475" cy="2435004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3985,6 +3674,82 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2007769</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2409825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="952500"/>
+          <a:ext cx="4188994" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2031256</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6181725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4364881" y="933450"/>
+          <a:ext cx="4150469" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4024,6 +3789,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>790576</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2400301</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2430759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942976" y="762000"/>
+          <a:ext cx="3790950" cy="2430759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4059,6 +3862,87 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2346454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600076" y="790575"/>
+          <a:ext cx="3609974" cy="2317879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2215672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="933451"/>
+          <a:ext cx="3457575" cy="2215671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4201,12 +4085,6 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="19">
-          <cell r="C19" t="str">
-            <v>Planeado</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v xml:space="preserve">Real </v>
-          </cell>
           <cell r="E19" t="str">
             <v>Desviación</v>
           </cell>
@@ -4214,12 +4092,6 @@
         <row r="20">
           <cell r="B20" t="str">
             <v>Prospectación</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
           </cell>
           <cell r="E20" t="e">
             <v>#DIV/0!</v>
@@ -4229,12 +4101,6 @@
           <cell r="B21" t="str">
             <v>Ventas</v>
           </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
           <cell r="E21" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -4242,12 +4108,6 @@
         <row r="22">
           <cell r="B22" t="str">
             <v>Planeación</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
           </cell>
           <cell r="E22" t="e">
             <v>#DIV/0!</v>
@@ -4257,12 +4117,6 @@
           <cell r="B23" t="str">
             <v>Compras</v>
           </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
           <cell r="E23" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -4270,12 +4124,6 @@
         <row r="24">
           <cell r="B24" t="str">
             <v>Implementación</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
           </cell>
           <cell r="E24" t="e">
             <v>#DIV/0!</v>
@@ -4285,12 +4133,6 @@
           <cell r="B25" t="str">
             <v>Cierre</v>
           </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>0</v>
-          </cell>
           <cell r="E25" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -4298,12 +4140,6 @@
         <row r="26">
           <cell r="B26" t="str">
             <v>Garantia</v>
-          </cell>
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-          <cell r="D26">
-            <v>0</v>
           </cell>
           <cell r="E26" t="e">
             <v>#DIV/0!</v>
@@ -4313,22 +4149,16 @@
           <cell r="B27" t="str">
             <v>Soporte</v>
           </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-          <cell r="D27">
-            <v>0</v>
-          </cell>
           <cell r="E27" t="e">
             <v>#DIV/0!</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4830,7 +4660,7 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
@@ -4855,7 +4685,7 @@
         <v>Desviación de esfuerzo (%)</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="30" outlineLevel="1">
+    <row r="2" spans="2:3" outlineLevel="1">
       <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
@@ -5191,8 +5021,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5545,8 +5375,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5895,8 +5725,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -6247,8 +6077,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -6599,8 +6429,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -6949,8 +6779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7179,5 +7009,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
+++ b/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,6 @@
     <sheet name="Apego a Auditorias Funcionales" sheetId="19" r:id="rId7"/>
     <sheet name="Índice de Satisfacción" sheetId="20" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -391,9 +388,6 @@
     <t>Ricardo Novela</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresar al documento </t>
-  </si>
-  <si>
     <t>Ingresar al check list de calidad correspondiente. Tomar el valor ubicado en la pestaña "Resumen" -&gt; seccion Proceso. Registrar los valores acorde a su orden en el archivo concentrado de metricas pestaña "Apego a Procesos"</t>
   </si>
   <si>
@@ -418,16 +412,19 @@
     <t>Jovanny Zepeda</t>
   </si>
   <si>
-    <t>Ingresar a bitrix (ruta de ubicación) tomar las horas registradas para cada sección del ciclo de vida, multiplicarla por el costo en horas dependiendo del puesto (se encuentra ubicada en estimación de proyecto pestaña costo por hora personal), finalmente hacer la sumatoria de los costos por horas de cada etapa y registrarlos en la pestaña desviación costos del concentrado de metricas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingresar a Bitrix() ,tomar las horas registradas para cada sección del ciclo de vida , registrar el acomulado total en el documento concentrado de metricas pestaña desviación de esfuerzo. </t>
-  </si>
-  <si>
     <t>Crear plan de acción para aumentar el promedio de satisfacción.</t>
   </si>
   <si>
     <t>calidad</t>
+  </si>
+  <si>
+    <t>Ingresar aldocumento ubicado en la URL () buscar el nombre del cliente correspondiente al proyecto, una vez localizado se debera tomar el valor de la ultima colmna del documento en la cual se encuentra el promedio de satisfacción del cliente, dicho resultado deberá ser registrado en el documento concentrado de metricas sección indice de satisfacción</t>
+  </si>
+  <si>
+    <t>Repetir los pasos del mecanismode desviación de esfuerzo solo que esta vez en lugar de calcular el total tomar las horas registradas para cada tarea del ciclo de vida y multiplicar por el costo en horas dependiendo del puesto (se encuentra ubicada en estimación de proyecto pestaña costo por hora personal), finalmente hacer la sumatoria de los costos por horas de cada etapa y registrarlos en la pestaña desviación costos del concentrado de metricas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar a Bitrix24 -&gt; mibitrix24 comtpaqi911 -&gt; (mis herramientos) CRM -&gt; click sobre CRM deseado -&gt; click actividades -&gt; click sobre cada actividad -&gt; sección control de tiempo, tomar las horas registradas para cada sección del ciclo de vida , registrar el acomulado total en el documento concentrado de metricas pestaña desviación de esfuerzo. </t>
   </si>
 </sst>
 </file>
@@ -923,6 +920,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -944,15 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1404,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57043200"/>
-        <c:axId val="57044992"/>
+        <c:axId val="89676416"/>
+        <c:axId val="89690496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57043200"/>
+        <c:axId val="89676416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1415,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57044992"/>
+        <c:crossAx val="89690496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +1423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57044992"/>
+        <c:axId val="89690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1437,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57043200"/>
+        <c:crossAx val="89676416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,11 +1773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="65261568"/>
-        <c:axId val="65263104"/>
+        <c:axId val="89748224"/>
+        <c:axId val="89749760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65261568"/>
+        <c:axId val="89748224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1787,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65263104"/>
+        <c:crossAx val="89749760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1798,7 +1795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65263104"/>
+        <c:axId val="89749760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1809,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65261568"/>
+        <c:crossAx val="89748224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2144,11 +2141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="65312256"/>
-        <c:axId val="65313792"/>
+        <c:axId val="89319680"/>
+        <c:axId val="89321472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65312256"/>
+        <c:axId val="89319680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2155,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65313792"/>
+        <c:crossAx val="89321472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +2163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65313792"/>
+        <c:axId val="89321472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,7 +2177,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65312256"/>
+        <c:crossAx val="89319680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2512,11 +2509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76651136"/>
-        <c:axId val="76661120"/>
+        <c:axId val="89365888"/>
+        <c:axId val="89367680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76651136"/>
+        <c:axId val="89365888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,7 +2523,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76661120"/>
+        <c:crossAx val="89367680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2534,7 +2531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76661120"/>
+        <c:axId val="89367680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2545,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76651136"/>
+        <c:crossAx val="89365888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2880,11 +2877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="77090816"/>
-        <c:axId val="77092352"/>
+        <c:axId val="92406528"/>
+        <c:axId val="92408064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77090816"/>
+        <c:axId val="92406528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,7 +2891,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77092352"/>
+        <c:crossAx val="92408064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2902,7 +2899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77092352"/>
+        <c:axId val="92408064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,7 +2913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77090816"/>
+        <c:crossAx val="92406528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3248,11 +3245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79316096"/>
-        <c:axId val="79317632"/>
+        <c:axId val="92459008"/>
+        <c:axId val="92460544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79316096"/>
+        <c:axId val="92459008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3262,7 +3259,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79317632"/>
+        <c:crossAx val="92460544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3270,7 +3267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79317632"/>
+        <c:axId val="92460544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3284,7 +3281,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79316096"/>
+        <c:crossAx val="92459008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3948,222 +3945,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Desviacion de esfuerzo"/>
-      <sheetName val="Desviacion de costos"/>
-      <sheetName val="Apego a Procesos"/>
-      <sheetName val="Apego a Productos"/>
-      <sheetName val="Física"/>
-      <sheetName val="Funcional"/>
-      <sheetName val="Indice de Satisfacción"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="D19" t="str">
-            <v xml:space="preserve">Real </v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>Desviación</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Prospectación</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-          <cell r="E20" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Ventas</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-          <cell r="E21" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Planeación</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-          <cell r="E22" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Compras</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-          <cell r="E23" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>Implementación</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-          <cell r="E24" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>Cierre</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>0</v>
-          </cell>
-          <cell r="E25" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>Garantia</v>
-          </cell>
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-          <cell r="E26" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>Soporte</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-          <cell r="D27">
-            <v>0</v>
-          </cell>
-          <cell r="E27" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="19">
-          <cell r="E19" t="str">
-            <v>Desviación</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Prospectación</v>
-          </cell>
-          <cell r="E20" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Ventas</v>
-          </cell>
-          <cell r="E21" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Planeación</v>
-          </cell>
-          <cell r="E22" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Compras</v>
-          </cell>
-          <cell r="E23" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>Implementación</v>
-          </cell>
-          <cell r="E24" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>Cierre</v>
-          </cell>
-          <cell r="E25" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>Garantia</v>
-          </cell>
-          <cell r="E26" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>Soporte</v>
-          </cell>
-          <cell r="E27" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4471,13 +4252,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="21"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
@@ -4489,7 +4270,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -4497,13 +4278,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="63"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="55" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -4513,21 +4294,21 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="22"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="63"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="63"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="23" t="s">
         <v>80</v>
       </c>
@@ -4547,13 +4328,13 @@
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="21"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1">
@@ -4561,14 +4342,14 @@
       <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="64"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1">
@@ -4576,40 +4357,40 @@
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57" t="s">
+      <c r="D13" s="59"/>
+      <c r="E13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
@@ -4632,16 +4413,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C14:D16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4660,8 +4441,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4753,9 +4534,9 @@
       </c>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="2:3" ht="33.75" customHeight="1" outlineLevel="1">
+    <row r="12" spans="2:3" ht="48" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -4821,7 +4602,7 @@
     </row>
     <row r="22" spans="2:3" outlineLevel="1">
       <c r="B22" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>70</v>
@@ -4829,7 +4610,7 @@
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>71</v>
@@ -4837,7 +4618,7 @@
     </row>
     <row r="24" spans="2:3" ht="30">
       <c r="B24" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>87</v>
@@ -5021,8 +4802,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5116,7 +4897,7 @@
     </row>
     <row r="12" spans="2:3" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -5176,7 +4957,7 @@
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>70</v>
@@ -5184,7 +4965,7 @@
     </row>
     <row r="22" spans="2:3" ht="30">
       <c r="B22" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>71</v>
@@ -5192,7 +4973,7 @@
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>87</v>
@@ -5466,7 +5247,7 @@
     </row>
     <row r="12" spans="2:3" ht="37.5" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -5818,7 +5599,7 @@
     </row>
     <row r="12" spans="2:3" ht="39.75" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -6170,7 +5951,7 @@
     </row>
     <row r="12" spans="2:3" ht="46.9" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -6522,7 +6303,7 @@
     </row>
     <row r="12" spans="2:3" ht="45.6" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -6779,8 +6560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6908,7 +6689,7 @@
     </row>
     <row r="10" spans="1:21" ht="61.5" customHeight="1">
       <c r="A10" s="81" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B10" s="81"/>
     </row>
@@ -6923,7 +6704,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -6985,7 +6766,7 @@
         <v>104</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
+++ b/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" activeTab="1"/>
+    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" r:id="rId1"/>
@@ -322,9 +322,6 @@
     <t>Desviación de Costo($)  =costo planeado - costo real</t>
   </si>
   <si>
-    <t>Tener una desviación máxima de +/- 10% en esfuerzo y costo de los servicios ofertados con el fin de asegurar la rentabilidad del negocio.</t>
-  </si>
-  <si>
     <t>Obtener más de 80% de calificación en las evaluaciones de nuestros procesos definidos con el fin de asegurar una entrega de calidad de nuestros servicios.</t>
   </si>
   <si>
@@ -400,12 +397,6 @@
     <t>Ingresar al check list de calidad correspondiente. Tomar el valor ubicado en la pestaña "Resumen" -&gt; seccion Funcionales. Registrar los valores acorde a su orden en el archivo concentrado de metricas pestaña "Funcional"</t>
   </si>
   <si>
-    <t>Si la desviacion es de 0% a 10%</t>
-  </si>
-  <si>
-    <t>Si la desvacion es mayor al 10% y menor o igual a 30%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Si la desviación es menor que 0 o Si la desviacion es mayor a 30% </t>
   </si>
   <si>
@@ -425,6 +416,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ingresar a Bitrix24 -&gt; mibitrix24 comtpaqi911 -&gt; (mis herramientos) CRM -&gt; click sobre CRM deseado -&gt; click actividades -&gt; click sobre cada actividad -&gt; sección control de tiempo, tomar las horas registradas para cada sección del ciclo de vida , registrar el acomulado total en el documento concentrado de metricas pestaña desviación de esfuerzo. </t>
+  </si>
+  <si>
+    <t>Tener una desviación máxima de +/- 15% en esfuerzo y costo de los servicios ofertados con el fin de asegurar la rentabilidad del negocio.</t>
+  </si>
+  <si>
+    <t>Si la desviacion es de 0% a 15%</t>
+  </si>
+  <si>
+    <t>Si la desvacion es mayor al 15% y menor o igual a 30%</t>
   </si>
 </sst>
 </file>
@@ -920,15 +920,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -950,6 +941,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1401,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89676416"/>
-        <c:axId val="89690496"/>
+        <c:axId val="56126080"/>
+        <c:axId val="56140160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89676416"/>
+        <c:axId val="56126080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1415,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89690496"/>
+        <c:crossAx val="56140160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1423,7 +1423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89690496"/>
+        <c:axId val="56140160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1437,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89676416"/>
+        <c:crossAx val="56126080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,11 +1773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89748224"/>
-        <c:axId val="89749760"/>
+        <c:axId val="39678720"/>
+        <c:axId val="39680256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89748224"/>
+        <c:axId val="39678720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1787,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89749760"/>
+        <c:crossAx val="39680256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89749760"/>
+        <c:axId val="39680256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1809,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89748224"/>
+        <c:crossAx val="39678720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,11 +2141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89319680"/>
-        <c:axId val="89321472"/>
+        <c:axId val="39512320"/>
+        <c:axId val="39514112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89319680"/>
+        <c:axId val="39512320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2155,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89321472"/>
+        <c:crossAx val="39514112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89321472"/>
+        <c:axId val="39514112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +2177,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89319680"/>
+        <c:crossAx val="39512320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,11 +2509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89365888"/>
-        <c:axId val="89367680"/>
+        <c:axId val="39624064"/>
+        <c:axId val="39625856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89365888"/>
+        <c:axId val="39624064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2523,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89367680"/>
+        <c:crossAx val="39625856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2531,7 +2531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89367680"/>
+        <c:axId val="39625856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +2545,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89365888"/>
+        <c:crossAx val="39624064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,11 +2877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92406528"/>
-        <c:axId val="92408064"/>
+        <c:axId val="39778944"/>
+        <c:axId val="39788928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92406528"/>
+        <c:axId val="39778944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2891,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92408064"/>
+        <c:crossAx val="39788928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2899,7 +2899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92408064"/>
+        <c:axId val="39788928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +2913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92406528"/>
+        <c:crossAx val="39778944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3245,11 +3245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92459008"/>
-        <c:axId val="92460544"/>
+        <c:axId val="39833600"/>
+        <c:axId val="39835136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92459008"/>
+        <c:axId val="39833600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3259,7 +3259,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92460544"/>
+        <c:crossAx val="39835136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3267,7 +3267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92460544"/>
+        <c:axId val="39835136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3281,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92459008"/>
+        <c:crossAx val="39833600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4238,7 +4238,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4252,13 +4252,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="21"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
@@ -4270,22 +4270,22 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B3" s="55" t="s">
-        <v>97</v>
+      <c r="B3" s="63" t="s">
+        <v>122</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="55"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="55" t="s">
-        <v>98</v>
+      <c r="B5" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
@@ -4294,21 +4294,21 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="22"/>
-      <c r="B6" s="55"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="55"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="55"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="23" t="s">
         <v>80</v>
       </c>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="B9" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>83</v>
@@ -4328,13 +4328,13 @@
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="21"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1">
@@ -4342,14 +4342,14 @@
       <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1">
@@ -4357,40 +4357,40 @@
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="61"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="61"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
@@ -4413,16 +4413,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C14:D16"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4441,8 +4441,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4471,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:3" outlineLevel="1">
@@ -4536,7 +4536,7 @@
     </row>
     <row r="12" spans="2:3" ht="48" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="67"/>
     </row>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="22" spans="2:3" outlineLevel="1">
       <c r="B22" s="33" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>70</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>71</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="24" spans="2:3" ht="30">
       <c r="B24" s="35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>87</v>
@@ -4802,8 +4802,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="12" spans="2:3" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="67"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="33" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>70</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="22" spans="2:3" ht="30">
       <c r="B22" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>71</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>87</v>
@@ -5224,18 +5224,18 @@
         <v>41</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="72"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="73"/>
     </row>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="12" spans="2:3" ht="37.5" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="67"/>
     </row>
@@ -5576,18 +5576,18 @@
         <v>41</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="75"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="76"/>
     </row>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="12" spans="2:3" ht="39.75" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="67"/>
     </row>
@@ -5928,18 +5928,18 @@
         <v>41</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="72"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="73"/>
     </row>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="12" spans="2:3" ht="46.9" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="67"/>
     </row>
@@ -6280,18 +6280,18 @@
         <v>41</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="72"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="73"/>
     </row>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="12" spans="2:3" ht="45.6" customHeight="1" outlineLevel="1">
       <c r="B12" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="66"/>
     </row>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
       <c r="B20" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="67"/>
     </row>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="10" spans="1:21" ht="61.5" customHeight="1">
       <c r="A10" s="81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B10" s="81"/>
     </row>
@@ -6704,7 +6704,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -6743,7 +6743,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="78"/>
     </row>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="20" spans="1:2" ht="28.5">
       <c r="A20" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>64</v>
@@ -6763,10 +6763,10 @@
     </row>
     <row r="21" spans="1:2" ht="28.5">
       <c r="A21" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
+++ b/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" activeTab="2"/>
+    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,12 @@
     <sheet name="Apego a Productos " sheetId="17" r:id="rId5"/>
     <sheet name="Apego a Auditorias Fisicas" sheetId="18" r:id="rId6"/>
     <sheet name="Apego a Auditorias Funcionales" sheetId="19" r:id="rId7"/>
-    <sheet name="Índice de Satisfacción" sheetId="20" r:id="rId8"/>
+    <sheet name="Crecimiento anual de ventas" sheetId="21" r:id="rId8"/>
+    <sheet name="Índice de Satisfacción" sheetId="20" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="140">
   <si>
     <t>Objetivos/Necesidades de Negocio y  Medición</t>
   </si>
@@ -248,9 +252,6 @@
   </si>
   <si>
     <t xml:space="preserve">¿Cuál es la deviacion del costo?                                                                                                                                     </t>
-  </si>
-  <si>
-    <t>Desviación de esfuerzo (%)</t>
   </si>
   <si>
     <t>¿Cuál es el porcentaje de apego a proceso del proyecto?</t>
@@ -293,9 +294,6 @@
   </si>
   <si>
     <t>Se analiza con direccion para tomar medidas inmeditas para corregir la desviacion y considerar actualizar la estimación del servicio</t>
-  </si>
-  <si>
-    <t>Desviación de costo (%)</t>
   </si>
   <si>
     <t>Que el índice de satisfacción sea menor a 70%</t>
@@ -425,6 +423,57 @@
   </si>
   <si>
     <t>Si la desvacion es mayor al 15% y menor o igual a 30%</t>
+  </si>
+  <si>
+    <t>Quincenal</t>
+  </si>
+  <si>
+    <t>Crear plan de acción para aumentar el porcentaje de cumplimiento en ventas.</t>
+  </si>
+  <si>
+    <t>Crear un plan de acción en base a los malos resultados obtenidos.</t>
+  </si>
+  <si>
+    <t>Desviación de esfuerzo</t>
+  </si>
+  <si>
+    <t>Desviación de costo</t>
+  </si>
+  <si>
+    <t>Obtener un crecimiento anual del 40% representado por un total de 2,424,000</t>
+  </si>
+  <si>
+    <t>Crecimiento anual de ventas</t>
+  </si>
+  <si>
+    <t>Que el índice de ventas sea menor o igual a 80%</t>
+  </si>
+  <si>
+    <t>Que el índice de ventas sea menor que 90% y mayor o igual a 81%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que el índice de ventas sea mayor o igual a 91% </t>
+  </si>
+  <si>
+    <t>Total esperado anual</t>
+  </si>
+  <si>
+    <t>Total obtenido quincenal</t>
+  </si>
+  <si>
+    <t>Conocer el apegó a la meta de ventas anuales en la empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Se esta cumpliendo la cuota establecida de forma quincenal?                                             </t>
+  </si>
+  <si>
+    <t>Hacer la sumatoria total de ventas en la quincena por empleado, para ello tomar los datos almacenados en el documento control de ventas, generar el calculo acorde a la formula definida y registrar los resultados en el concentrado de métricas, pestaña ventas, a su vez  integrar los resultados obtenidos en forma global y tambien desglozarlo por empleado.</t>
+  </si>
+  <si>
+    <t>Acumulado Total</t>
+  </si>
+  <si>
+    <t>Venta por empleado = (sumatoria de ventas por empleado)                                                                         Venta quincenal =  suma de ventas por empleado</t>
   </si>
 </sst>
 </file>
@@ -797,7 +846,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -920,6 +969,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -941,15 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1000,6 +1055,30 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1401,11 +1480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="56126080"/>
-        <c:axId val="56140160"/>
+        <c:axId val="57436800"/>
+        <c:axId val="57450880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56126080"/>
+        <c:axId val="57436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56140160"/>
+        <c:crossAx val="57450880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1423,7 +1502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56140160"/>
+        <c:axId val="57450880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1516,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56126080"/>
+        <c:crossAx val="57436800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,11 +1852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39678720"/>
-        <c:axId val="39680256"/>
+        <c:axId val="79856384"/>
+        <c:axId val="79857920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39678720"/>
+        <c:axId val="79856384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1866,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39680256"/>
+        <c:crossAx val="79857920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39680256"/>
+        <c:axId val="79857920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1888,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39678720"/>
+        <c:crossAx val="79856384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,11 +2220,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39512320"/>
-        <c:axId val="39514112"/>
+        <c:axId val="57080064"/>
+        <c:axId val="57085952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39512320"/>
+        <c:axId val="57080064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2234,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39514112"/>
+        <c:crossAx val="57085952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39514112"/>
+        <c:axId val="57085952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +2256,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39512320"/>
+        <c:crossAx val="57080064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,11 +2588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39624064"/>
-        <c:axId val="39625856"/>
+        <c:axId val="57126272"/>
+        <c:axId val="57132160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39624064"/>
+        <c:axId val="57126272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2602,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39625856"/>
+        <c:crossAx val="57132160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2531,7 +2610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39625856"/>
+        <c:axId val="57132160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +2624,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39624064"/>
+        <c:crossAx val="57126272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,11 +2956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39778944"/>
-        <c:axId val="39788928"/>
+        <c:axId val="79952128"/>
+        <c:axId val="79962112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39778944"/>
+        <c:axId val="79952128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2970,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39788928"/>
+        <c:crossAx val="79962112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2899,7 +2978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39788928"/>
+        <c:axId val="79962112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +2992,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39778944"/>
+        <c:crossAx val="79952128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3245,11 +3324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39833600"/>
-        <c:axId val="39835136"/>
+        <c:axId val="80007168"/>
+        <c:axId val="80008704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39833600"/>
+        <c:axId val="80007168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3259,7 +3338,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39835136"/>
+        <c:crossAx val="80008704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3267,7 +3346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39835136"/>
+        <c:axId val="80008704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3360,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39833600"/>
+        <c:crossAx val="80007168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3907,6 +3986,87 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3295651</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1676736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="19 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="771525"/>
+          <a:ext cx="3295650" cy="1667211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4314825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1779693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="20 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619626" y="762000"/>
+          <a:ext cx="3590924" cy="1779693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -3943,6 +4103,92 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Desviacion de esfuerzo"/>
+      <sheetName val="Desviacion de costos"/>
+      <sheetName val="Apego a Procesos"/>
+      <sheetName val="Apego a Productos"/>
+      <sheetName val="Física"/>
+      <sheetName val="Funcional"/>
+      <sheetName val="Crecimiento anual de ventas"/>
+      <sheetName val="Indice de Satisfacción"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="13">
+          <cell r="G13" t="str">
+            <v>Monto Total</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Planeado</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v xml:space="preserve">Real </v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>Planeado</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v xml:space="preserve">Real </v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Periodo</v>
+          </cell>
+          <cell r="B15">
+            <v>12345</v>
+          </cell>
+          <cell r="C15">
+            <v>11234</v>
+          </cell>
+          <cell r="G15">
+            <v>2424000</v>
+          </cell>
+          <cell r="H15">
+            <v>11234</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Oriana</v>
+          </cell>
+          <cell r="B16">
+            <v>6172.5</v>
+          </cell>
+          <cell r="C16">
+            <v>6123</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Marisol</v>
+          </cell>
+          <cell r="B17">
+            <v>6172.5</v>
+          </cell>
+          <cell r="C17">
+            <v>5234</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4235,10 +4481,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4252,13 +4498,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="21"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
@@ -4270,22 +4516,22 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B3" s="63" t="s">
-        <v>122</v>
+      <c r="B3" s="57" t="s">
+        <v>120</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="63"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="23" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="63" t="s">
-        <v>97</v>
+      <c r="B5" s="57" t="s">
+        <v>95</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
@@ -4294,135 +4540,143 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="22"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="57"/>
+      <c r="C7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="57"/>
+      <c r="C8" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="63"/>
-      <c r="C7" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="63"/>
-      <c r="C8" s="23" t="s">
-        <v>80</v>
       </c>
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="18.75">
-      <c r="A11" s="21"/>
-      <c r="B11" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="B10" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="18.75">
+      <c r="A12" s="21"/>
+      <c r="B12" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57" t="s">
-        <v>110</v>
+      <c r="B13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58" t="s">
+        <v>10</v>
       </c>
       <c r="F13" s="58"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1">
       <c r="A14" s="3"/>
       <c r="B14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="58"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="26.25" customHeight="1">
+      <c r="C15" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="63"/>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:7" s="5" customFormat="1">
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="26.25" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="18.75">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+    <row r="18" spans="1:7" s="5" customFormat="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="18.75">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C14:D16"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4441,8 +4695,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4463,7 +4717,7 @@
       </c>
       <c r="C1" s="29" t="str">
         <f>'Objetivos de Medición'!C3</f>
-        <v>Desviación de esfuerzo (%)</v>
+        <v>Desviación de esfuerzo</v>
       </c>
     </row>
     <row r="2" spans="2:3" outlineLevel="1">
@@ -4471,7 +4725,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:3" outlineLevel="1">
@@ -4483,20 +4737,20 @@
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="2:3" ht="187.15" customHeight="1" outlineLevel="1">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="69"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -4510,35 +4764,35 @@
       <c r="B8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>95</v>
+      <c r="C8" s="72" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="2:3" outlineLevel="1">
       <c r="B10" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="2:3" ht="48" customHeight="1" outlineLevel="1">
-      <c r="B12" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="66"/>
+      <c r="B12" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -4549,16 +4803,18 @@
       </c>
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
-      <c r="B14" s="30"/>
+      <c r="B14" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C14" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -4569,7 +4825,9 @@
       </c>
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
-      <c r="B17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="C17" s="32" t="s">
         <v>21</v>
       </c>
@@ -4583,26 +4841,28 @@
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
-      <c r="B19" s="30"/>
+      <c r="B19" s="54" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="67"/>
+      <c r="B20" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="2:3" s="18" customFormat="1" outlineLevel="1">
-      <c r="B21" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="65"/>
+      <c r="B21" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="67"/>
     </row>
     <row r="22" spans="2:3" outlineLevel="1">
       <c r="B22" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>70</v>
@@ -4610,7 +4870,7 @@
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>71</v>
@@ -4618,10 +4878,10 @@
     </row>
     <row r="24" spans="2:3" ht="30">
       <c r="B24" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -4802,8 +5062,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4824,7 +5084,7 @@
       </c>
       <c r="C1" s="29" t="str">
         <f>'Objetivos de Medición'!C4</f>
-        <v>Desviación de costo (%)</v>
+        <v>Desviación de costo</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="30" outlineLevel="1">
@@ -4844,20 +5104,20 @@
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="2:3" ht="190.15" customHeight="1" outlineLevel="1">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="69"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -4871,35 +5131,35 @@
       <c r="B8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>96</v>
+      <c r="C8" s="72" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="2:3" outlineLevel="1">
       <c r="B10" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="2:3" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="B12" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="66"/>
+      <c r="B12" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -4910,16 +5170,18 @@
       </c>
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
-      <c r="B14" s="30"/>
+      <c r="B14" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C14" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -4930,7 +5192,9 @@
       </c>
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
-      <c r="B17" s="30"/>
+      <c r="B17" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C17" s="32" t="s">
         <v>21</v>
       </c>
@@ -4944,20 +5208,22 @@
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
-      <c r="B19" s="30"/>
+      <c r="B19" s="54" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="67"/>
+      <c r="B20" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>70</v>
@@ -4965,7 +5231,7 @@
     </row>
     <row r="22" spans="2:3" ht="30">
       <c r="B22" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>71</v>
@@ -4973,10 +5239,10 @@
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -5156,8 +5422,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5192,24 +5458,24 @@
         <v>69</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="2:3" ht="187.9" customHeight="1" outlineLevel="1">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="69"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -5223,33 +5489,33 @@
       <c r="B8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="71" t="s">
-        <v>108</v>
+      <c r="C8" s="73" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="72"/>
+        <v>102</v>
+      </c>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="73"/>
+        <v>103</v>
+      </c>
+      <c r="C10" s="75"/>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="2:3" ht="37.5" customHeight="1" outlineLevel="1">
-      <c r="B12" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="66"/>
+      <c r="B12" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -5260,16 +5526,18 @@
       </c>
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
-      <c r="B14" s="30"/>
+      <c r="B14" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C14" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -5280,7 +5548,9 @@
       </c>
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
-      <c r="B17" s="30"/>
+      <c r="B17" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C17" s="32" t="s">
         <v>45</v>
       </c>
@@ -5294,23 +5564,25 @@
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
-      <c r="B19" s="30"/>
+      <c r="B19" s="54" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="67"/>
+      <c r="B20" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -5318,7 +5590,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -5326,7 +5598,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -5506,8 +5778,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5536,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:3" outlineLevel="1">
@@ -5544,24 +5816,24 @@
         <v>69</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="2:3" ht="190.9" customHeight="1" outlineLevel="1">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="69"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -5575,33 +5847,33 @@
       <c r="B8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="74" t="s">
-        <v>106</v>
+      <c r="C8" s="76" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="75"/>
+        <v>102</v>
+      </c>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="76"/>
+        <v>103</v>
+      </c>
+      <c r="C10" s="78"/>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="2:3" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="B12" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="66"/>
+      <c r="B12" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -5612,16 +5884,18 @@
       </c>
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
-      <c r="B14" s="30"/>
+      <c r="B14" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C14" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -5632,7 +5906,9 @@
       </c>
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
-      <c r="B17" s="30"/>
+      <c r="B17" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C17" s="32" t="s">
         <v>46</v>
       </c>
@@ -5646,23 +5922,25 @@
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
-      <c r="B19" s="30"/>
+      <c r="B19" s="54" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="67"/>
+      <c r="B20" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -5670,7 +5948,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -5678,7 +5956,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -5858,8 +6136,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5896,24 +6174,24 @@
         <v>69</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="2:3" ht="192.6" customHeight="1" outlineLevel="1">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="69"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -5927,33 +6205,33 @@
       <c r="B8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="71" t="s">
-        <v>107</v>
+      <c r="C8" s="73" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="72"/>
+        <v>102</v>
+      </c>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="73"/>
+        <v>103</v>
+      </c>
+      <c r="C10" s="75"/>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="2:3" ht="46.9" customHeight="1" outlineLevel="1">
-      <c r="B12" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="66"/>
+      <c r="B12" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -5964,16 +6242,18 @@
       </c>
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
-      <c r="B14" s="30"/>
+      <c r="B14" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C14" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -5984,7 +6264,9 @@
       </c>
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
-      <c r="B17" s="30"/>
+      <c r="B17" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C17" s="32" t="s">
         <v>46</v>
       </c>
@@ -5998,23 +6280,25 @@
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
-      <c r="B19" s="30"/>
+      <c r="B19" s="54" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="67"/>
+      <c r="B20" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -6022,7 +6306,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -6030,7 +6314,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -6210,8 +6494,8 @@
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -6252,20 +6536,20 @@
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="2:3" ht="187.15" customHeight="1" outlineLevel="1">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="69"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -6279,33 +6563,33 @@
       <c r="B8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="71" t="s">
-        <v>109</v>
+      <c r="C8" s="73" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:3" outlineLevel="1">
       <c r="B9" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="72"/>
+        <v>102</v>
+      </c>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="73"/>
+        <v>103</v>
+      </c>
+      <c r="C10" s="75"/>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="2:3" ht="45.6" customHeight="1" outlineLevel="1">
-      <c r="B12" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="66"/>
+      <c r="B12" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -6316,16 +6600,18 @@
       </c>
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
-      <c r="B14" s="30"/>
+      <c r="B14" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C14" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -6336,7 +6622,9 @@
       </c>
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
-      <c r="B17" s="30"/>
+      <c r="B17" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="C17" s="32" t="s">
         <v>46</v>
       </c>
@@ -6350,23 +6638,25 @@
       </c>
     </row>
     <row r="19" spans="2:3" outlineLevel="1">
-      <c r="B19" s="30"/>
+      <c r="B19" s="54" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="67"/>
+      <c r="B20" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -6374,7 +6664,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -6382,7 +6672,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="27:30">
@@ -6558,10 +6848,205 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="80"/>
+    </row>
+    <row r="5" spans="1:2" ht="141" customHeight="1">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="80"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="11" customFormat="1">
+      <c r="A8" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="11" customFormat="1">
+      <c r="A9" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="88"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="89"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="80"/>
+    </row>
+    <row r="12" spans="1:2" ht="45.75" customHeight="1">
+      <c r="A12" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="91"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="80"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="80"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5">
+      <c r="A22" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6597,20 +7082,20 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="81"/>
     </row>
     <row r="5" spans="1:21" ht="184.5" customHeight="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="80"/>
       <c r="Q6" s="11" t="s">
         <v>51</v>
       </c>
@@ -6682,16 +7167,16 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="80"/>
     </row>
     <row r="10" spans="1:21" ht="61.5" customHeight="1">
-      <c r="A10" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="81"/>
+      <c r="A10" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="83"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="48" t="s">
@@ -6702,16 +7187,18 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="30"/>
+      <c r="A12" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="B12" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="80"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="48" t="s">
@@ -6722,7 +7209,9 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="30"/>
+      <c r="A15" s="54" t="s">
+        <v>123</v>
+      </c>
       <c r="B15" s="30" t="s">
         <v>63</v>
       </c>
@@ -6736,26 +7225,28 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="B17" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="78"/>
+      <c r="A18" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="80"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="77"/>
+      <c r="A19" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="79"/>
     </row>
     <row r="20" spans="1:2" ht="28.5">
       <c r="A20" s="49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>64</v>
@@ -6763,15 +7254,15 @@
     </row>
     <row r="21" spans="1:2" ht="28.5">
       <c r="A21" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>65</v>

--- a/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
+++ b/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-1365" yWindow="300" windowWidth="16605" windowHeight="9435" tabRatio="971" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
     <sheet name="Crecimiento anual de ventas" sheetId="21" r:id="rId8"/>
     <sheet name="Índice de Satisfacción" sheetId="20" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -404,9 +401,6 @@
     <t>Crear plan de acción para aumentar el promedio de satisfacción.</t>
   </si>
   <si>
-    <t>calidad</t>
-  </si>
-  <si>
     <t>Ingresar aldocumento ubicado en la URL () buscar el nombre del cliente correspondiente al proyecto, una vez localizado se debera tomar el valor de la ultima colmna del documento en la cual se encuentra el promedio de satisfacción del cliente, dicho resultado deberá ser registrado en el documento concentrado de metricas sección indice de satisfacción</t>
   </si>
   <si>
@@ -474,6 +468,9 @@
   </si>
   <si>
     <t>Venta por empleado = (sumatoria de ventas por empleado)                                                                         Venta quincenal =  suma de ventas por empleado</t>
+  </si>
+  <si>
+    <t>Administración</t>
   </si>
 </sst>
 </file>
@@ -846,7 +843,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -975,14 +972,14 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1005,6 +1002,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1042,29 +1048,8 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1075,10 +1060,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1480,11 +1480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57436800"/>
-        <c:axId val="57450880"/>
+        <c:axId val="86347136"/>
+        <c:axId val="86963328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57436800"/>
+        <c:axId val="86347136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57450880"/>
+        <c:crossAx val="86963328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1502,7 +1502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57450880"/>
+        <c:axId val="86963328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1516,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57436800"/>
+        <c:crossAx val="86347136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1852,11 +1852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79856384"/>
-        <c:axId val="79857920"/>
+        <c:axId val="88106496"/>
+        <c:axId val="88108032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79856384"/>
+        <c:axId val="88106496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,7 +1866,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79857920"/>
+        <c:crossAx val="88108032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1874,7 +1874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79857920"/>
+        <c:axId val="88108032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1888,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79856384"/>
+        <c:crossAx val="88106496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2220,11 +2220,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57080064"/>
-        <c:axId val="57085952"/>
+        <c:axId val="89598976"/>
+        <c:axId val="89600768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57080064"/>
+        <c:axId val="89598976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2234,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57085952"/>
+        <c:crossAx val="89600768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2242,7 +2242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57085952"/>
+        <c:axId val="89600768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2256,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57080064"/>
+        <c:crossAx val="89598976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2588,11 +2588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57126272"/>
-        <c:axId val="57132160"/>
+        <c:axId val="86835584"/>
+        <c:axId val="86837120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57126272"/>
+        <c:axId val="86835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2602,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57132160"/>
+        <c:crossAx val="86837120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2610,7 +2610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57132160"/>
+        <c:axId val="86837120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2624,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57126272"/>
+        <c:crossAx val="86835584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2956,11 +2956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79952128"/>
-        <c:axId val="79962112"/>
+        <c:axId val="89288064"/>
+        <c:axId val="89289856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79952128"/>
+        <c:axId val="89288064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,7 +2970,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79962112"/>
+        <c:crossAx val="89289856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2978,7 +2978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79962112"/>
+        <c:axId val="89289856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +2992,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79952128"/>
+        <c:crossAx val="89288064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3324,11 +3324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80007168"/>
-        <c:axId val="80008704"/>
+        <c:axId val="87393024"/>
+        <c:axId val="87394560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80007168"/>
+        <c:axId val="87393024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,7 +3338,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80008704"/>
+        <c:crossAx val="87394560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3346,7 +3346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80008704"/>
+        <c:axId val="87394560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,7 +3360,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80007168"/>
+        <c:crossAx val="87393024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4105,92 +4105,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Desviacion de esfuerzo"/>
-      <sheetName val="Desviacion de costos"/>
-      <sheetName val="Apego a Procesos"/>
-      <sheetName val="Apego a Productos"/>
-      <sheetName val="Física"/>
-      <sheetName val="Funcional"/>
-      <sheetName val="Crecimiento anual de ventas"/>
-      <sheetName val="Indice de Satisfacción"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="13">
-          <cell r="G13" t="str">
-            <v>Monto Total</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>Planeado</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v xml:space="preserve">Real </v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>Planeado</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v xml:space="preserve">Real </v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Periodo</v>
-          </cell>
-          <cell r="B15">
-            <v>12345</v>
-          </cell>
-          <cell r="C15">
-            <v>11234</v>
-          </cell>
-          <cell r="G15">
-            <v>2424000</v>
-          </cell>
-          <cell r="H15">
-            <v>11234</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Oriana</v>
-          </cell>
-          <cell r="B16">
-            <v>6172.5</v>
-          </cell>
-          <cell r="C16">
-            <v>6123</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Marisol</v>
-          </cell>
-          <cell r="B17">
-            <v>6172.5</v>
-          </cell>
-          <cell r="C17">
-            <v>5234</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4498,13 +4412,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="21"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
@@ -4516,21 +4430,21 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B3" s="57" t="s">
-        <v>120</v>
+      <c r="B3" s="68" t="s">
+        <v>119</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="B4" s="68"/>
+      <c r="C4" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="57"/>
-      <c r="C4" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="68" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -4540,21 +4454,21 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="22"/>
-      <c r="B6" s="57"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="57"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="23" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="57"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="23" t="s">
         <v>79</v>
       </c>
@@ -4570,10 +4484,10 @@
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="B10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4596,14 +4510,14 @@
       <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1">
@@ -4667,16 +4581,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:D17"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4696,7 +4610,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4737,20 +4651,20 @@
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="2:3" ht="187.15" customHeight="1" outlineLevel="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -4764,7 +4678,7 @@
       <c r="B8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="75" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4772,7 +4686,7 @@
       <c r="B9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="2:3" outlineLevel="1">
       <c r="B10" s="30" t="s">
@@ -4783,16 +4697,16 @@
       </c>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="2:3" ht="48" customHeight="1" outlineLevel="1">
-      <c r="B12" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="68"/>
+      <c r="B12" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="71"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -4804,17 +4718,17 @@
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="72"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -4826,7 +4740,7 @@
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>21</v>
@@ -4849,20 +4763,20 @@
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" s="18" customFormat="1" outlineLevel="1">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="67"/>
+      <c r="C21" s="70"/>
     </row>
     <row r="22" spans="2:3" outlineLevel="1">
       <c r="B22" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>70</v>
@@ -4870,7 +4784,7 @@
     </row>
     <row r="23" spans="2:3" ht="30">
       <c r="B23" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>71</v>
@@ -5063,7 +4977,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5104,20 +5018,20 @@
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="2:3" ht="190.15" customHeight="1" outlineLevel="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -5131,7 +5045,7 @@
       <c r="B8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="75" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5139,7 +5053,7 @@
       <c r="B9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="2:3" outlineLevel="1">
       <c r="B10" s="30" t="s">
@@ -5150,16 +5064,16 @@
       </c>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="2:3" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="B12" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="68"/>
+      <c r="B12" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="71"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -5171,17 +5085,17 @@
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>33</v>
+        <v>122</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="72"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -5193,7 +5107,7 @@
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>21</v>
@@ -5216,14 +5130,14 @@
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>70</v>
@@ -5231,7 +5145,7 @@
     </row>
     <row r="22" spans="2:3" ht="30">
       <c r="B22" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>71</v>
@@ -5423,7 +5337,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5462,20 +5376,20 @@
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="2:3" ht="187.9" customHeight="1" outlineLevel="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -5489,7 +5403,7 @@
       <c r="B8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="76" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5497,25 +5411,25 @@
       <c r="B9" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="75"/>
+      <c r="C10" s="78"/>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="2:3" ht="37.5" customHeight="1" outlineLevel="1">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="71"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -5527,17 +5441,17 @@
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>33</v>
+        <v>122</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="72"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -5549,7 +5463,7 @@
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>45</v>
@@ -5572,10 +5486,10 @@
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="40" t="s">
@@ -5779,7 +5693,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -5820,20 +5734,20 @@
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="2:3" ht="190.9" customHeight="1" outlineLevel="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -5847,7 +5761,7 @@
       <c r="B8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="79" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5855,25 +5769,25 @@
       <c r="B9" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="80"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="81"/>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="2:3" ht="39.75" customHeight="1" outlineLevel="1">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="71"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -5885,17 +5799,17 @@
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>33</v>
+        <v>122</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="72"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -5907,7 +5821,7 @@
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>46</v>
@@ -5930,10 +5844,10 @@
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="41" t="s">
@@ -6137,7 +6051,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -6178,20 +6092,20 @@
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="2:3" ht="192.6" customHeight="1" outlineLevel="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -6205,7 +6119,7 @@
       <c r="B8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="76" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6213,25 +6127,25 @@
       <c r="B9" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="75"/>
+      <c r="C10" s="78"/>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="2:3" ht="46.9" customHeight="1" outlineLevel="1">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="71"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -6243,17 +6157,17 @@
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>33</v>
+        <v>122</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="72"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -6265,7 +6179,7 @@
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>46</v>
@@ -6288,10 +6202,10 @@
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="41" t="s">
@@ -6495,7 +6409,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -6536,20 +6450,20 @@
       </c>
     </row>
     <row r="4" spans="2:3" outlineLevel="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="2:3" ht="187.15" customHeight="1" outlineLevel="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="2:3" outlineLevel="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B7" s="29" t="s">
@@ -6563,7 +6477,7 @@
       <c r="B8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="76" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6571,25 +6485,25 @@
       <c r="B9" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="2:3" ht="30" outlineLevel="1">
       <c r="B10" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="75"/>
+      <c r="C10" s="78"/>
     </row>
     <row r="11" spans="2:3" outlineLevel="1">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="2:3" ht="45.6" customHeight="1" outlineLevel="1">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="71"/>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B13" s="29" t="s">
@@ -6601,17 +6515,17 @@
     </row>
     <row r="14" spans="2:3" outlineLevel="1">
       <c r="B14" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>33</v>
+        <v>122</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:3" outlineLevel="1">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="72"/>
     </row>
     <row r="16" spans="2:3" ht="15" customHeight="1" outlineLevel="1">
       <c r="B16" s="29" t="s">
@@ -6623,7 +6537,7 @@
     </row>
     <row r="17" spans="2:3" outlineLevel="1">
       <c r="B17" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>46</v>
@@ -6646,10 +6560,10 @@
       </c>
     </row>
     <row r="20" spans="2:3" outlineLevel="1">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" outlineLevel="1">
       <c r="B21" s="41" t="s">
@@ -6850,8 +6764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6864,8 +6778,8 @@
       <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>129</v>
+      <c r="B1" s="57" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6873,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6881,24 +6795,24 @@
         <v>69</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="82"/>
     </row>
     <row r="5" spans="1:2" ht="141" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="55" t="s">
@@ -6909,36 +6823,36 @@
       </c>
     </row>
     <row r="8" spans="1:2" s="11" customFormat="1">
-      <c r="A8" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>139</v>
+      <c r="A8" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="11" customFormat="1">
-      <c r="A9" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="88"/>
+      <c r="A9" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="84"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="89"/>
+        <v>133</v>
+      </c>
+      <c r="B10" s="85"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="82"/>
     </row>
     <row r="12" spans="1:2" ht="45.75" customHeight="1">
-      <c r="A12" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="91"/>
+      <c r="A12" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="88"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="55" t="s">
@@ -6950,17 +6864,17 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>33</v>
+        <v>122</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="82"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="55" t="s">
@@ -6972,13 +6886,13 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
+    <row r="18" spans="1:2">
       <c r="A18" s="55" t="s">
         <v>61</v>
       </c>
@@ -6995,14 +6909,14 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="82"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>64</v>
@@ -7010,18 +6924,18 @@
     </row>
     <row r="22" spans="1:2" ht="28.5">
       <c r="A22" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7045,8 +6959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7082,20 +6996,20 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="90"/>
     </row>
     <row r="5" spans="1:21" ht="184.5" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
       <c r="Q6" s="11" t="s">
         <v>51</v>
       </c>
@@ -7167,16 +7081,16 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="82"/>
     </row>
     <row r="10" spans="1:21" ht="61.5" customHeight="1">
-      <c r="A10" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="83"/>
+      <c r="A10" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="92"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="48" t="s">
@@ -7188,17 +7102,17 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>116</v>
+        <v>122</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="82"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="48" t="s">
@@ -7210,7 +7124,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>63</v>
@@ -7233,16 +7147,16 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="82"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="79"/>
+      <c r="B19" s="89"/>
     </row>
     <row r="20" spans="1:2" ht="28.5">
       <c r="A20" s="49" t="s">

--- a/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
+++ b/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" state="visible" r:id="rId2"/>
@@ -449,7 +449,7 @@
     <t>Proyecto 2</t>
   </si>
   <si>
-    <t>Ingresar aldocumento ubicado en la URL () buscar el nombre del cliente correspondiente al proyecto, una vez localizado se debera tomar el valor de la ultima colmna del documento en la cual se encuentra el promedio de satisfacción del cliente, dicho resultado deberá ser registrado en el documento concentrado de metricas sección indice de satisfacción</t>
+    <t>Ingresar al documento ubicado en la carpeta cierre encuesta de satisfacción tomar el resultado obtenido y el cual deberá ser registrado en el documento concentrado de metricas sección indice de satisfacción</t>
   </si>
   <si>
     <t>El análisis se realiza por cada cliente encuestado</t>
@@ -479,7 +479,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00;[RED]\$#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -501,12 +501,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -556,16 +550,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -619,7 +605,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -637,13 +623,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCB3D39"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF9BC348"/>
+        <bgColor rgb="FF9BBB59"/>
       </patternFill>
     </fill>
   </fills>
@@ -677,7 +663,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -703,40 +689,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,55 +731,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -816,35 +783,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -852,15 +807,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -876,10 +831,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -888,15 +839,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -908,90 +859,86 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Porcentual 2" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1006,10 +953,10 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF779637"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF878787"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FFC0504D"/>
@@ -1017,7 +964,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF2E5F99"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1035,9 +982,9 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3C7AC7"/>
+      <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF9BC348"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1047,8 +994,8 @@
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF9C2F2C"/>
-      <rgbColor rgb="FFCB3D39"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -1056,33 +1003,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Apego a productos de trabajo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1396,11 +1320,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="44417197"/>
-        <c:axId val="90631951"/>
+        <c:axId val="74157567"/>
+        <c:axId val="72440041"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44417197"/>
+        <c:axId val="74157567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,14 +1341,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90631951"/>
+        <c:crossAx val="72440041"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90631951"/>
+        <c:axId val="72440041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,7 +1398,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44417197"/>
+        <c:crossAx val="74157567"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1504,33 +1428,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Apego a calidad fisica</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1541,19 +1442,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
+              <c:f>'Desviacion de costos'!$AB$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Esfuerzo planeado</c:v>
+                  <c:v>Costo planeado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1467,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1603,24 +1502,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
+              <c:f>'Desviacion de costos'!$AB$39:$AB$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>3287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>234</c:v>
+                  <c:v>5344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>543</c:v>
+                  <c:v>3423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>344</c:v>
+                  <c:v>5467</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>532</c:v>
@@ -1629,7 +1528,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>324</c:v>
@@ -1643,19 +1542,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
+              <c:f>'Desviacion de costos'!$AC$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Esfuerzo real</c:v>
+                  <c:v>Costo real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1670,7 +1567,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1705,24 +1602,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
+              <c:f>'Desviacion de costos'!$AC$39:$AC$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>4076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>4088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>343</c:v>
+                  <c:v>5076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>331</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>434</c:v>
+                  <c:v>4980</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>533</c:v>
@@ -1731,7 +1628,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>342</c:v>
@@ -1745,19 +1642,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
+              <c:f>'Desviacion de costos'!$AD$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Desviacion de esfuerzo %</c:v>
+                  <c:v>Desviacion del costo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1772,7 +1667,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1807,36 +1702,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
+              <c:f>'Desviacion de costos'!$AD$39:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.2</c:v>
+                  <c:v>789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.81</c:v>
+                  <c:v>-1256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.11</c:v>
+                  <c:v>-3000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>-487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,11 +1739,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="61158832"/>
-        <c:axId val="61937328"/>
+        <c:axId val="15829809"/>
+        <c:axId val="82616405"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61158832"/>
+        <c:axId val="15829809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1760,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61937328"/>
+        <c:crossAx val="82616405"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61937328"/>
+        <c:axId val="82616405"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1817,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61158832"/>
+        <c:crossAx val="15829809"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1952,33 +1847,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Apego a calidad funcional</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2292,11 +2164,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="95377443"/>
-        <c:axId val="75184486"/>
+        <c:axId val="79803306"/>
+        <c:axId val="20112678"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95377443"/>
+        <c:axId val="79803306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,14 +2185,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75184486"/>
+        <c:crossAx val="20112678"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75184486"/>
+        <c:axId val="20112678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,7 +2242,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="95377443"/>
+        <c:crossAx val="79803306"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2400,33 +2272,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Desviación de esfuerzo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2740,11 +2589,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="72742427"/>
-        <c:axId val="92952879"/>
+        <c:axId val="74789328"/>
+        <c:axId val="80572125"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72742427"/>
+        <c:axId val="74789328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,14 +2610,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92952879"/>
+        <c:crossAx val="80572125"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92952879"/>
+        <c:axId val="80572125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,7 +2667,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72742427"/>
+        <c:crossAx val="74789328"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2848,33 +2697,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Desviacion de costos</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2885,16 +2711,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AB$38</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AB$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Costo planeado</c:v>
+                  <c:v>Esfuerzo planeado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4f81bd"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2909,7 +2738,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2944,24 +2773,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$AB$39:$AB$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AB$39:$AB$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3287</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5344</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3423</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5467</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>532</c:v>
@@ -2970,7 +2799,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>900</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>324</c:v>
@@ -2984,16 +2813,19 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AC$38</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AC$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Costo real</c:v>
+                  <c:v>Esfuerzo real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c0504d"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3008,7 +2840,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3043,24 +2875,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$AC$39:$AC$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AC$39:$AC$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4076</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4088</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5076</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37000</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4980</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>533</c:v>
@@ -3069,7 +2901,7 @@
                   <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>342</c:v>
@@ -3083,16 +2915,19 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AD$38</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AD$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Desviacion del costo</c:v>
+                  <c:v>Desviacion de esfuerzo %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9bbb59"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3107,7 +2942,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Desviacion de costos'!$AA$39:$AA$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AA$39:$AA$47</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -3142,36 +2977,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de costos'!$AD$39:$AD$47</c:f>
+              <c:f>'Desviacion de esfuerzo'!$AD$39:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>789</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1256</c:v>
+                  <c:v>-1.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3000</c:v>
+                  <c:v>-0.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-487</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>600</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3179,11 +3014,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="71744743"/>
-        <c:axId val="7647983"/>
+        <c:axId val="2654977"/>
+        <c:axId val="68330409"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71744743"/>
+        <c:axId val="2654977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3200,14 +3035,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7647983"/>
+        <c:crossAx val="68330409"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7647983"/>
+        <c:axId val="68330409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3257,7 +3092,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71744743"/>
+        <c:crossAx val="2654977"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3287,33 +3122,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Apego al proceso</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3627,11 +3439,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="88836702"/>
-        <c:axId val="51071151"/>
+        <c:axId val="58572827"/>
+        <c:axId val="86884965"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88836702"/>
+        <c:axId val="58572827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,14 +3460,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51071151"/>
+        <c:crossAx val="86884965"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51071151"/>
+        <c:axId val="86884965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3705,7 +3517,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88836702"/>
+        <c:crossAx val="58572827"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3740,15 +3552,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3756,8 +3568,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43870320" y="9402120"/>
-        <a:ext cx="5981760" cy="2885400"/>
+        <a:off x="43924320" y="9384120"/>
+        <a:ext cx="5981040" cy="2884680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3770,15 +3582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3098880</xdr:colOff>
+      <xdr:colOff>3152160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2105280</xdr:rowOff>
+      <xdr:rowOff>2086560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3791,8 +3603,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="230040" y="752760"/>
-          <a:ext cx="5980680" cy="2114280"/>
+          <a:off x="284040" y="734760"/>
+          <a:ext cx="5979960" cy="2113560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3807,15 +3619,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3284640</xdr:colOff>
+      <xdr:colOff>3338640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7265880</xdr:colOff>
+      <xdr:colOff>7319160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2061000</xdr:rowOff>
+      <xdr:rowOff>2042280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3828,8 +3640,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6396480" y="810000"/>
-          <a:ext cx="3981240" cy="2012760"/>
+          <a:off x="6450480" y="792000"/>
+          <a:ext cx="3980520" cy="2012040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3849,15 +3661,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:colOff>258840</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>232200</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3865,8 +3677,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43057080" y="9908280"/>
-        <a:ext cx="8102160" cy="3352680"/>
+        <a:off x="43111080" y="9890280"/>
+        <a:ext cx="8101440" cy="3351960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3879,15 +3691,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2007720</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:colOff>2061000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2409480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3900,8 +3712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="230040" y="943200"/>
-          <a:ext cx="4889520" cy="2437200"/>
+          <a:off x="284040" y="925200"/>
+          <a:ext cx="4888800" cy="2436480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3916,15 +3728,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2027160</xdr:colOff>
+      <xdr:colOff>2081160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:colOff>99000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2397960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3937,8 +3749,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5139000" y="914760"/>
-          <a:ext cx="5970240" cy="2454120"/>
+          <a:off x="5193000" y="896760"/>
+          <a:ext cx="5969520" cy="2453400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3958,15 +3770,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3974,8 +3786,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="45369720" y="9125640"/>
-        <a:ext cx="5981400" cy="2885760"/>
+        <a:off x="45423720" y="9107640"/>
+        <a:ext cx="5980680" cy="2885040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3988,15 +3800,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3877920</xdr:colOff>
+      <xdr:colOff>3931200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2362320</xdr:rowOff>
+      <xdr:rowOff>2343600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4009,8 +3821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="230040" y="790920"/>
-          <a:ext cx="6759720" cy="2371320"/>
+          <a:off x="284040" y="772920"/>
+          <a:ext cx="6759000" cy="2370600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4025,15 +3837,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4541760</xdr:colOff>
+      <xdr:colOff>4595760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8341920</xdr:colOff>
+      <xdr:colOff>8395200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2340000</xdr:rowOff>
+      <xdr:rowOff>2321280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4046,8 +3858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7653600" y="705240"/>
-          <a:ext cx="3800160" cy="2434680"/>
+          <a:off x="7707600" y="687240"/>
+          <a:ext cx="3799440" cy="2433960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4067,15 +3879,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4083,8 +3895,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42409800" y="9344880"/>
-        <a:ext cx="5981760" cy="2885400"/>
+        <a:off x="42463800" y="9326880"/>
+        <a:ext cx="5981040" cy="2884680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4097,15 +3909,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2034360</xdr:colOff>
+      <xdr:colOff>2087640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2400480</xdr:rowOff>
+      <xdr:rowOff>2381760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4118,8 +3930,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="230040" y="943200"/>
-          <a:ext cx="4916160" cy="2409480"/>
+          <a:off x="284040" y="925200"/>
+          <a:ext cx="4915440" cy="2408760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4134,15 +3946,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2058120</xdr:colOff>
+      <xdr:colOff>2112120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6208200</xdr:colOff>
+      <xdr:colOff>6261480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2415240</xdr:rowOff>
+      <xdr:rowOff>2396520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4155,8 +3967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5169960" y="924120"/>
-          <a:ext cx="4150080" cy="2443320"/>
+          <a:off x="5223960" y="906120"/>
+          <a:ext cx="4149360" cy="2442600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4176,15 +3988,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4192,8 +4004,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41927400" y="9266760"/>
-        <a:ext cx="5981400" cy="2885400"/>
+        <a:off x="41981400" y="9248760"/>
+        <a:ext cx="5980680" cy="2884680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4206,15 +4018,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>817560</xdr:colOff>
+      <xdr:colOff>871560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2426760</xdr:colOff>
+      <xdr:colOff>2480040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2421360</xdr:rowOff>
+      <xdr:rowOff>2402640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4227,8 +4039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1020600" y="752760"/>
-          <a:ext cx="4518000" cy="2430360"/>
+          <a:off x="1074600" y="734760"/>
+          <a:ext cx="4517280" cy="2429640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4248,15 +4060,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4264,8 +4076,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42206760" y="9181080"/>
-        <a:ext cx="5981400" cy="2885400"/>
+        <a:off x="42260760" y="9163080"/>
+        <a:ext cx="5980680" cy="2884680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4278,15 +4090,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>474840</xdr:colOff>
+      <xdr:colOff>528840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1903320</xdr:colOff>
+      <xdr:colOff>1956600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2337120</xdr:rowOff>
+      <xdr:rowOff>2318400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4299,8 +4111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="677880" y="781200"/>
-          <a:ext cx="4337280" cy="2317680"/>
+          <a:off x="731880" y="763200"/>
+          <a:ext cx="4336560" cy="2316960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4320,15 +4132,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3322440</xdr:colOff>
+      <xdr:colOff>3375720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1667160</xdr:rowOff>
+      <xdr:rowOff>1648440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4341,8 +4153,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="762120"/>
-          <a:ext cx="3295440" cy="1666800"/>
+          <a:off x="81000" y="744120"/>
+          <a:ext cx="3294720" cy="1666080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4357,15 +4169,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>750960</xdr:colOff>
+      <xdr:colOff>804960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4341600</xdr:colOff>
+      <xdr:colOff>4394880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1770480</xdr:rowOff>
+      <xdr:rowOff>1751760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4378,8 +4190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5945760" y="752760"/>
-          <a:ext cx="3590640" cy="1779480"/>
+          <a:off x="5999760" y="734760"/>
+          <a:ext cx="3589920" cy="1778760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4399,15 +4211,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>379080</xdr:colOff>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2206440</xdr:rowOff>
+      <xdr:rowOff>2187720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4420,8 +4232,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="924120"/>
-          <a:ext cx="4492800" cy="2215440"/>
+          <a:off x="81000" y="906120"/>
+          <a:ext cx="4492080" cy="2214720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4612,8 +4424,8 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
@@ -4654,22 +4466,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="109.425101214575"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="23" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="23" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="23" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="109.425101214575"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="24" t="str">
+      <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C3</f>
         <v>Desviación de esfuerzo</v>
       </c>
@@ -5697,10 +5509,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="0"/>
@@ -6727,10 +6539,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="0"/>
@@ -7757,10 +7569,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -8785,8 +8597,8 @@
     </row>
     <row r="5" customFormat="false" ht="187.15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -9811,10 +9623,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A6" s="0"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -10839,10 +10651,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A7" s="0"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="0"/>
@@ -11869,10 +11681,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A8" s="0"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="0"/>
@@ -12899,10 +12711,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -13927,10 +13739,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="0"/>
@@ -14957,10 +14769,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -15985,10 +15797,10 @@
     </row>
     <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -17013,10 +16825,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="0"/>
@@ -18043,10 +17855,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="0"/>
@@ -19073,10 +18885,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -20101,10 +19913,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="0"/>
@@ -21131,10 +20943,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="0"/>
@@ -22161,10 +21973,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="0"/>
@@ -23191,10 +23003,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="0"/>
@@ -24221,10 +24033,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -25247,17 +25059,17 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="32" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B21" s="33" t="s">
+    <row r="21" s="28" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="B21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="31" t="s">
         <v>54</v>
       </c>
       <c r="AA22" s="0"/>
@@ -25266,7 +25078,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -25278,7 +25090,7 @@
       <c r="AD23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -25368,150 +25180,150 @@
       <c r="AD37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA38" s="23" t="s">
+      <c r="AA38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AB38" s="23" t="s">
+      <c r="AB38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC38" s="23" t="s">
+      <c r="AC38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AD38" s="23" t="s">
+      <c r="AD38" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA39" s="23" t="s">
+      <c r="AA39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AB39" s="23" t="n">
+      <c r="AB39" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="AC39" s="23" t="n">
+      <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="38" t="n">
+      <c r="AD39" s="34" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA40" s="23" t="s">
+      <c r="AA40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB40" s="23" t="n">
+      <c r="AB40" s="22" t="n">
         <v>234</v>
       </c>
-      <c r="AC40" s="23" t="n">
+      <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="38" t="n">
+      <c r="AD40" s="34" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA41" s="23" t="s">
+      <c r="AA41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AB41" s="23" t="n">
+      <c r="AB41" s="22" t="n">
         <v>543</v>
       </c>
-      <c r="AC41" s="23" t="n">
+      <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="38" t="n">
+      <c r="AD41" s="34" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA42" s="23" t="s">
+      <c r="AA42" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB42" s="23" t="n">
+      <c r="AB42" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AC42" s="23" t="n">
+      <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="38" t="n">
+      <c r="AD42" s="34" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA43" s="23" t="s">
+      <c r="AA43" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AB43" s="23" t="n">
+      <c r="AB43" s="22" t="n">
         <v>344</v>
       </c>
-      <c r="AC43" s="23" t="n">
+      <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="38" t="n">
+      <c r="AD43" s="34" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA44" s="23" t="s">
+      <c r="AA44" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AB44" s="23" t="n">
+      <c r="AB44" s="22" t="n">
         <v>532</v>
       </c>
-      <c r="AC44" s="23" t="n">
+      <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="38" t="n">
+      <c r="AD44" s="34" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA45" s="23" t="s">
+      <c r="AA45" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB45" s="23" t="n">
+      <c r="AB45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AC45" s="23" t="n">
+      <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="38" t="n">
+      <c r="AD45" s="34" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA46" s="23" t="s">
+      <c r="AA46" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AB46" s="23" t="n">
+      <c r="AB46" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="AC46" s="23" t="n">
+      <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="38" t="n">
+      <c r="AD46" s="34" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA47" s="23" t="s">
+      <c r="AA47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AB47" s="23" t="n">
+      <c r="AB47" s="22" t="n">
         <v>324</v>
       </c>
-      <c r="AC47" s="23" t="n">
+      <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="38" t="n">
+      <c r="AD47" s="34" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -25552,21 +25364,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="89.421052631579"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="23" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="23" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="23" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="89.421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="24" t="str">
+      <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C4</f>
         <v>Desviación de costo</v>
       </c>
@@ -25576,10 +25388,10 @@
       <c r="AD1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>69</v>
       </c>
       <c r="AA2" s="0"/>
@@ -25588,10 +25400,10 @@
       <c r="AD2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>71</v>
       </c>
       <c r="AA3" s="0"/>
@@ -25600,38 +25412,38 @@
       <c r="AD3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="190.15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AA7" s="0"/>
@@ -25640,10 +25452,10 @@
       <c r="AD7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="AA8" s="0"/>
@@ -25652,20 +25464,20 @@
       <c r="AD8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="AA10" s="0"/>
@@ -25674,30 +25486,30 @@
       <c r="AD10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
       <c r="AD11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="AA13" s="0"/>
@@ -25706,10 +25518,10 @@
       <c r="AD13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>44</v>
       </c>
       <c r="AA14" s="0"/>
@@ -25718,20 +25530,20 @@
       <c r="AD14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
       <c r="AB15" s="0"/>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AA16" s="0"/>
@@ -25740,10 +25552,10 @@
       <c r="AD16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AA17" s="0"/>
@@ -25752,10 +25564,10 @@
       <c r="AD17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
       <c r="AA18" s="0"/>
@@ -25764,10 +25576,10 @@
       <c r="AD18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="AA19" s="0"/>
@@ -25776,20 +25588,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="14"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="31" t="s">
         <v>54</v>
       </c>
       <c r="AA21" s="0"/>
@@ -25798,7 +25610,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -25810,7 +25622,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -25906,150 +25718,150 @@
       <c r="AD37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA38" s="23" t="s">
+      <c r="AA38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AB38" s="23" t="s">
+      <c r="AB38" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AC38" s="23" t="s">
+      <c r="AC38" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AD38" s="23" t="s">
+      <c r="AD38" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA39" s="23" t="s">
+      <c r="AA39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AB39" s="40" t="n">
+      <c r="AB39" s="35" t="n">
         <v>3287</v>
       </c>
-      <c r="AC39" s="40" t="n">
+      <c r="AC39" s="35" t="n">
         <v>4076</v>
       </c>
-      <c r="AD39" s="41" t="n">
+      <c r="AD39" s="36" t="n">
         <f aca="false">(AC39-AB39)</f>
         <v>789</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA40" s="23" t="s">
+      <c r="AA40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB40" s="40" t="n">
+      <c r="AB40" s="35" t="n">
         <v>5344</v>
       </c>
-      <c r="AC40" s="40" t="n">
+      <c r="AC40" s="35" t="n">
         <v>4088</v>
       </c>
-      <c r="AD40" s="41" t="n">
+      <c r="AD40" s="36" t="n">
         <f aca="false">(AC40-AB40)</f>
         <v>-1256</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA41" s="23" t="s">
+      <c r="AA41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AB41" s="40" t="n">
+      <c r="AB41" s="35" t="n">
         <v>3423</v>
       </c>
-      <c r="AC41" s="40" t="n">
+      <c r="AC41" s="35" t="n">
         <v>5076</v>
       </c>
-      <c r="AD41" s="41" t="n">
+      <c r="AD41" s="36" t="n">
         <f aca="false">(AC41-AB41)</f>
         <v>1653</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA42" s="23" t="s">
+      <c r="AA42" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB42" s="40" t="n">
+      <c r="AB42" s="35" t="n">
         <v>40000</v>
       </c>
-      <c r="AC42" s="40" t="n">
+      <c r="AC42" s="35" t="n">
         <v>37000</v>
       </c>
-      <c r="AD42" s="41" t="n">
+      <c r="AD42" s="36" t="n">
         <f aca="false">(AC42-AB42)</f>
         <v>-3000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA43" s="23" t="s">
+      <c r="AA43" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AB43" s="40" t="n">
+      <c r="AB43" s="35" t="n">
         <v>5467</v>
       </c>
-      <c r="AC43" s="40" t="n">
+      <c r="AC43" s="35" t="n">
         <v>4980</v>
       </c>
-      <c r="AD43" s="41" t="n">
+      <c r="AD43" s="36" t="n">
         <f aca="false">(AC43-AB43)</f>
         <v>-487</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA44" s="23" t="s">
+      <c r="AA44" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AB44" s="40" t="n">
+      <c r="AB44" s="35" t="n">
         <v>532</v>
       </c>
-      <c r="AC44" s="40" t="n">
+      <c r="AC44" s="35" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="41" t="n">
+      <c r="AD44" s="36" t="n">
         <f aca="false">(AC44-AB44)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA45" s="23" t="s">
+      <c r="AA45" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB45" s="40" t="n">
+      <c r="AB45" s="35" t="n">
         <v>534</v>
       </c>
-      <c r="AC45" s="40" t="n">
+      <c r="AC45" s="35" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="41" t="n">
+      <c r="AD45" s="36" t="n">
         <f aca="false">(AC45-AB45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA46" s="23" t="s">
+      <c r="AA46" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AB46" s="40" t="n">
+      <c r="AB46" s="35" t="n">
         <v>900</v>
       </c>
-      <c r="AC46" s="40" t="n">
+      <c r="AC46" s="35" t="n">
         <v>1500</v>
       </c>
-      <c r="AD46" s="41" t="n">
+      <c r="AD46" s="36" t="n">
         <f aca="false">(AC46-AB46)</f>
         <v>600</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA47" s="23" t="s">
+      <c r="AA47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AB47" s="40" t="n">
+      <c r="AB47" s="35" t="n">
         <v>324</v>
       </c>
-      <c r="AC47" s="40" t="n">
+      <c r="AC47" s="35" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="41" t="n">
+      <c r="AD47" s="36" t="n">
         <f aca="false">(AC47-AB47)</f>
         <v>18</v>
       </c>
@@ -26089,21 +25901,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="126.287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="23" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="23" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="23" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="126.287449392713"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="24" t="str">
+      <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C5</f>
         <v>Apego a procesos</v>
       </c>
@@ -26113,20 +25925,20 @@
       <c r="AD1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="24"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
       <c r="AD2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>78</v>
       </c>
       <c r="AA3" s="0"/>
@@ -26135,38 +25947,38 @@
       <c r="AD3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="187.9" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AA7" s="0"/>
@@ -26175,10 +25987,10 @@
       <c r="AD7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="18" t="s">
         <v>80</v>
       </c>
       <c r="AA8" s="0"/>
@@ -26187,50 +25999,50 @@
       <c r="AD8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0"/>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
       <c r="AD11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="AA13" s="0"/>
@@ -26239,10 +26051,10 @@
       <c r="AD13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>44</v>
       </c>
       <c r="AA14" s="0"/>
@@ -26251,20 +26063,20 @@
       <c r="AD14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
       <c r="AB15" s="0"/>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AA16" s="0"/>
@@ -26273,10 +26085,10 @@
       <c r="AD16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="17" t="s">
         <v>84</v>
       </c>
       <c r="AA17" s="0"/>
@@ -26285,10 +26097,10 @@
       <c r="AD17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
       <c r="AA18" s="0"/>
@@ -26297,10 +26109,10 @@
       <c r="AD18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="AA19" s="0"/>
@@ -26309,20 +26121,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="14"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="39" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="0"/>
@@ -26331,7 +26143,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="40" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -26343,7 +26155,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -26439,150 +26251,150 @@
       <c r="AD37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA38" s="23" t="s">
+      <c r="AA38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AB38" s="23" t="s">
+      <c r="AB38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC38" s="23" t="s">
+      <c r="AC38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AD38" s="23" t="s">
+      <c r="AD38" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA39" s="23" t="s">
+      <c r="AA39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AB39" s="23" t="n">
+      <c r="AB39" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="AC39" s="23" t="n">
+      <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="38" t="n">
+      <c r="AD39" s="34" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA40" s="23" t="s">
+      <c r="AA40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB40" s="23" t="n">
+      <c r="AB40" s="22" t="n">
         <v>234</v>
       </c>
-      <c r="AC40" s="23" t="n">
+      <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="38" t="n">
+      <c r="AD40" s="34" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA41" s="23" t="s">
+      <c r="AA41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AB41" s="23" t="n">
+      <c r="AB41" s="22" t="n">
         <v>543</v>
       </c>
-      <c r="AC41" s="23" t="n">
+      <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="38" t="n">
+      <c r="AD41" s="34" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA42" s="23" t="s">
+      <c r="AA42" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB42" s="23" t="n">
+      <c r="AB42" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AC42" s="23" t="n">
+      <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="38" t="n">
+      <c r="AD42" s="34" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA43" s="23" t="s">
+      <c r="AA43" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AB43" s="23" t="n">
+      <c r="AB43" s="22" t="n">
         <v>344</v>
       </c>
-      <c r="AC43" s="23" t="n">
+      <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="38" t="n">
+      <c r="AD43" s="34" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA44" s="23" t="s">
+      <c r="AA44" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AB44" s="23" t="n">
+      <c r="AB44" s="22" t="n">
         <v>532</v>
       </c>
-      <c r="AC44" s="23" t="n">
+      <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="38" t="n">
+      <c r="AD44" s="34" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA45" s="23" t="s">
+      <c r="AA45" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB45" s="23" t="n">
+      <c r="AB45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AC45" s="23" t="n">
+      <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="38" t="n">
+      <c r="AD45" s="34" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA46" s="23" t="s">
+      <c r="AA46" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AB46" s="23" t="n">
+      <c r="AB46" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="AC46" s="23" t="n">
+      <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="38" t="n">
+      <c r="AD46" s="34" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA47" s="23" t="s">
+      <c r="AA47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AB47" s="23" t="n">
+      <c r="AB47" s="22" t="n">
         <v>324</v>
       </c>
-      <c r="AC47" s="23" t="n">
+      <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="38" t="n">
+      <c r="AD47" s="34" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -26622,21 +26434,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="93"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="23" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="23" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="23" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="93"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="24" t="str">
+      <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C6</f>
         <v>Apego a Productos</v>
       </c>
@@ -26646,10 +26458,10 @@
       <c r="AD1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>91</v>
       </c>
       <c r="AA2" s="0"/>
@@ -26658,10 +26470,10 @@
       <c r="AD2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>92</v>
       </c>
       <c r="AA3" s="0"/>
@@ -26670,38 +26482,38 @@
       <c r="AD3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="190.9" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AA7" s="0"/>
@@ -26710,10 +26522,10 @@
       <c r="AD7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="42" t="s">
         <v>93</v>
       </c>
       <c r="AA8" s="0"/>
@@ -26722,50 +26534,50 @@
       <c r="AD8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="47"/>
+      <c r="C9" s="42"/>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="42"/>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0"/>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
       <c r="AD11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="AA13" s="0"/>
@@ -26774,10 +26586,10 @@
       <c r="AD13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>44</v>
       </c>
       <c r="AA14" s="0"/>
@@ -26786,20 +26598,20 @@
       <c r="AD14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
       <c r="AB15" s="0"/>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AA16" s="0"/>
@@ -26808,10 +26620,10 @@
       <c r="AD16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="17" t="s">
         <v>95</v>
       </c>
       <c r="AA17" s="0"/>
@@ -26820,10 +26632,10 @@
       <c r="AD17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
       <c r="AA18" s="0"/>
@@ -26832,10 +26644,10 @@
       <c r="AD18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="AA19" s="0"/>
@@ -26844,20 +26656,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="14"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="31" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="0"/>
@@ -26866,7 +26678,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="40" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -26878,7 +26690,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -26974,150 +26786,150 @@
       <c r="AD37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA38" s="23" t="s">
+      <c r="AA38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AB38" s="23" t="s">
+      <c r="AB38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC38" s="23" t="s">
+      <c r="AC38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AD38" s="23" t="s">
+      <c r="AD38" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA39" s="23" t="s">
+      <c r="AA39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AB39" s="23" t="n">
+      <c r="AB39" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="AC39" s="23" t="n">
+      <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="38" t="n">
+      <c r="AD39" s="34" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA40" s="23" t="s">
+      <c r="AA40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB40" s="23" t="n">
+      <c r="AB40" s="22" t="n">
         <v>234</v>
       </c>
-      <c r="AC40" s="23" t="n">
+      <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="38" t="n">
+      <c r="AD40" s="34" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA41" s="23" t="s">
+      <c r="AA41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AB41" s="23" t="n">
+      <c r="AB41" s="22" t="n">
         <v>543</v>
       </c>
-      <c r="AC41" s="23" t="n">
+      <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="38" t="n">
+      <c r="AD41" s="34" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA42" s="23" t="s">
+      <c r="AA42" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB42" s="23" t="n">
+      <c r="AB42" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AC42" s="23" t="n">
+      <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="38" t="n">
+      <c r="AD42" s="34" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA43" s="23" t="s">
+      <c r="AA43" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AB43" s="23" t="n">
+      <c r="AB43" s="22" t="n">
         <v>344</v>
       </c>
-      <c r="AC43" s="23" t="n">
+      <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="38" t="n">
+      <c r="AD43" s="34" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA44" s="23" t="s">
+      <c r="AA44" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AB44" s="23" t="n">
+      <c r="AB44" s="22" t="n">
         <v>532</v>
       </c>
-      <c r="AC44" s="23" t="n">
+      <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="38" t="n">
+      <c r="AD44" s="34" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA45" s="23" t="s">
+      <c r="AA45" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB45" s="23" t="n">
+      <c r="AB45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AC45" s="23" t="n">
+      <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="38" t="n">
+      <c r="AD45" s="34" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA46" s="23" t="s">
+      <c r="AA46" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AB46" s="23" t="n">
+      <c r="AB46" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="AC46" s="23" t="n">
+      <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="38" t="n">
+      <c r="AD46" s="34" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA47" s="23" t="s">
+      <c r="AA47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AB47" s="23" t="n">
+      <c r="AB47" s="22" t="n">
         <v>324</v>
       </c>
-      <c r="AC47" s="23" t="n">
+      <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="38" t="n">
+      <c r="AD47" s="34" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -27157,21 +26969,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="87.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="23" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="23" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="23" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="87.5748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="24" t="str">
+      <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C7</f>
         <v>Auditorias Físicas</v>
       </c>
@@ -27181,10 +26993,10 @@
       <c r="AD1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>96</v>
       </c>
       <c r="AA2" s="0"/>
@@ -27193,10 +27005,10 @@
       <c r="AD2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>97</v>
       </c>
       <c r="AA3" s="0"/>
@@ -27205,38 +27017,38 @@
       <c r="AD3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="192.6" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AA7" s="0"/>
@@ -27245,10 +27057,10 @@
       <c r="AD7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="18" t="s">
         <v>98</v>
       </c>
       <c r="AA8" s="0"/>
@@ -27257,50 +27069,50 @@
       <c r="AD8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0"/>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
       <c r="AD11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="AA13" s="0"/>
@@ -27309,10 +27121,10 @@
       <c r="AD13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>44</v>
       </c>
       <c r="AA14" s="0"/>
@@ -27321,20 +27133,20 @@
       <c r="AD14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
       <c r="AB15" s="0"/>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AA16" s="0"/>
@@ -27343,10 +27155,10 @@
       <c r="AD16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="17" t="s">
         <v>95</v>
       </c>
       <c r="AA17" s="0"/>
@@ -27355,10 +27167,10 @@
       <c r="AD17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
       <c r="AA18" s="0"/>
@@ -27367,10 +27179,10 @@
       <c r="AD18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="AA19" s="0"/>
@@ -27379,20 +27191,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="14"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="31" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="0"/>
@@ -27401,7 +27213,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="40" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -27413,7 +27225,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -27509,150 +27321,150 @@
       <c r="AD37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA38" s="23" t="s">
+      <c r="AA38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AB38" s="23" t="s">
+      <c r="AB38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC38" s="23" t="s">
+      <c r="AC38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AD38" s="23" t="s">
+      <c r="AD38" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA39" s="23" t="s">
+      <c r="AA39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AB39" s="23" t="n">
+      <c r="AB39" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="AC39" s="23" t="n">
+      <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="38" t="n">
+      <c r="AD39" s="34" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA40" s="23" t="s">
+      <c r="AA40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB40" s="23" t="n">
+      <c r="AB40" s="22" t="n">
         <v>234</v>
       </c>
-      <c r="AC40" s="23" t="n">
+      <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="38" t="n">
+      <c r="AD40" s="34" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA41" s="23" t="s">
+      <c r="AA41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AB41" s="23" t="n">
+      <c r="AB41" s="22" t="n">
         <v>543</v>
       </c>
-      <c r="AC41" s="23" t="n">
+      <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="38" t="n">
+      <c r="AD41" s="34" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA42" s="23" t="s">
+      <c r="AA42" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB42" s="23" t="n">
+      <c r="AB42" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AC42" s="23" t="n">
+      <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="38" t="n">
+      <c r="AD42" s="34" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA43" s="23" t="s">
+      <c r="AA43" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AB43" s="23" t="n">
+      <c r="AB43" s="22" t="n">
         <v>344</v>
       </c>
-      <c r="AC43" s="23" t="n">
+      <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="38" t="n">
+      <c r="AD43" s="34" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA44" s="23" t="s">
+      <c r="AA44" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AB44" s="23" t="n">
+      <c r="AB44" s="22" t="n">
         <v>532</v>
       </c>
-      <c r="AC44" s="23" t="n">
+      <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="38" t="n">
+      <c r="AD44" s="34" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA45" s="23" t="s">
+      <c r="AA45" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB45" s="23" t="n">
+      <c r="AB45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AC45" s="23" t="n">
+      <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="38" t="n">
+      <c r="AD45" s="34" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA46" s="23" t="s">
+      <c r="AA46" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AB46" s="23" t="n">
+      <c r="AB46" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="AC46" s="23" t="n">
+      <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="38" t="n">
+      <c r="AD46" s="34" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA47" s="23" t="s">
+      <c r="AA47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AB47" s="23" t="n">
+      <c r="AB47" s="22" t="n">
         <v>324</v>
       </c>
-      <c r="AC47" s="23" t="n">
+      <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="38" t="n">
+      <c r="AD47" s="34" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -27692,21 +27504,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="2.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="32.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="90.7165991902834"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="25"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="23" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="23" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="23" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="2.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="32.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="90.7165991902834"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="25"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="22" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="22" width="11.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="24" t="str">
+      <c r="C1" s="14" t="str">
         <f aca="false">'Objetivos de Medición'!C8</f>
         <v>Auditorias Funcionales</v>
       </c>
@@ -27716,10 +27528,10 @@
       <c r="AD1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>100</v>
       </c>
       <c r="AA2" s="0"/>
@@ -27728,10 +27540,10 @@
       <c r="AD2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>101</v>
       </c>
       <c r="AA3" s="0"/>
@@ -27740,38 +27552,38 @@
       <c r="AD3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="25"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="187.15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="14"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AA7" s="0"/>
@@ -27780,10 +27592,10 @@
       <c r="AD7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="18" t="s">
         <v>102</v>
       </c>
       <c r="AA8" s="0"/>
@@ -27792,50 +27604,50 @@
       <c r="AD8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="18"/>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="18"/>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0"/>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="14"/>
       <c r="AA11" s="0"/>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
       <c r="AD11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="27"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="AA13" s="0"/>
@@ -27844,10 +27656,10 @@
       <c r="AD13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>44</v>
       </c>
       <c r="AA14" s="0"/>
@@ -27856,20 +27668,20 @@
       <c r="AD14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="14"/>
       <c r="AA15" s="0"/>
       <c r="AB15" s="0"/>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AA16" s="0"/>
@@ -27878,10 +27690,10 @@
       <c r="AD16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="17" t="s">
         <v>95</v>
       </c>
       <c r="AA17" s="0"/>
@@ -27890,10 +27702,10 @@
       <c r="AD17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
       <c r="AA18" s="0"/>
@@ -27902,10 +27714,10 @@
       <c r="AD18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="AA19" s="0"/>
@@ -27914,20 +27726,20 @@
       <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="14"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="31" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="0"/>
@@ -27936,7 +27748,7 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="40" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -27948,7 +27760,7 @@
       <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -28044,150 +27856,150 @@
       <c r="AD37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA38" s="23" t="s">
+      <c r="AA38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AB38" s="23" t="s">
+      <c r="AB38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC38" s="23" t="s">
+      <c r="AC38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AD38" s="23" t="s">
+      <c r="AD38" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA39" s="23" t="s">
+      <c r="AA39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AB39" s="23" t="n">
+      <c r="AB39" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="AC39" s="23" t="n">
+      <c r="AC39" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="AD39" s="38" t="n">
+      <c r="AD39" s="34" t="n">
         <f aca="false">(AC39-AB39)/100</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA40" s="23" t="s">
+      <c r="AA40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB40" s="23" t="n">
+      <c r="AB40" s="22" t="n">
         <v>234</v>
       </c>
-      <c r="AC40" s="23" t="n">
+      <c r="AC40" s="22" t="n">
         <v>53</v>
       </c>
-      <c r="AD40" s="38" t="n">
+      <c r="AD40" s="34" t="n">
         <f aca="false">(AC40-AB40)/100</f>
         <v>-1.81</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA41" s="23" t="s">
+      <c r="AA41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AB41" s="23" t="n">
+      <c r="AB41" s="22" t="n">
         <v>543</v>
       </c>
-      <c r="AC41" s="23" t="n">
+      <c r="AC41" s="22" t="n">
         <v>343</v>
       </c>
-      <c r="AD41" s="38" t="n">
+      <c r="AD41" s="34" t="n">
         <f aca="false">(AC41-AB41)/100</f>
         <v>-2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA42" s="23" t="s">
+      <c r="AA42" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB42" s="23" t="n">
+      <c r="AB42" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AC42" s="23" t="n">
+      <c r="AC42" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="AD42" s="38" t="n">
+      <c r="AD42" s="34" t="n">
         <f aca="false">(AC42-AB42)/100</f>
         <v>-0.11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA43" s="23" t="s">
+      <c r="AA43" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AB43" s="23" t="n">
+      <c r="AB43" s="22" t="n">
         <v>344</v>
       </c>
-      <c r="AC43" s="23" t="n">
+      <c r="AC43" s="22" t="n">
         <v>434</v>
       </c>
-      <c r="AD43" s="38" t="n">
+      <c r="AD43" s="34" t="n">
         <f aca="false">(AC43-AB43)/100</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA44" s="23" t="s">
+      <c r="AA44" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AB44" s="23" t="n">
+      <c r="AB44" s="22" t="n">
         <v>532</v>
       </c>
-      <c r="AC44" s="23" t="n">
+      <c r="AC44" s="22" t="n">
         <v>533</v>
       </c>
-      <c r="AD44" s="38" t="n">
+      <c r="AD44" s="34" t="n">
         <f aca="false">(AC44-AB44)/100</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA45" s="23" t="s">
+      <c r="AA45" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AB45" s="23" t="n">
+      <c r="AB45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AC45" s="23" t="n">
+      <c r="AC45" s="22" t="n">
         <v>534</v>
       </c>
-      <c r="AD45" s="38" t="n">
+      <c r="AD45" s="34" t="n">
         <f aca="false">(AC45-AB45)/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA46" s="23" t="s">
+      <c r="AA46" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AB46" s="23" t="n">
+      <c r="AB46" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="AC46" s="23" t="n">
+      <c r="AC46" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="AD46" s="38" t="n">
+      <c r="AD46" s="34" t="n">
         <f aca="false">(AC46-AB46)/100</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA47" s="23" t="s">
+      <c r="AA47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AB47" s="23" t="n">
+      <c r="AB47" s="22" t="n">
         <v>324</v>
       </c>
-      <c r="AC47" s="23" t="n">
+      <c r="AC47" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="AD47" s="38" t="n">
+      <c r="AD47" s="34" t="n">
         <f aca="false">(AC47-AB47)/100</f>
         <v>0.18</v>
       </c>
@@ -28221,7 +28033,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -28233,166 +28045,166 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="141" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="47" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="50" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="47" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="47"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="47" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="27" t="s">
         <v>121</v>
       </c>
     </row>
@@ -28425,8 +28237,8 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28437,45 +28249,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="60" t="str">
+      <c r="B1" s="55" t="str">
         <f aca="false">'Objetivos de Medición'!C9</f>
         <v>Índice de Satisfacción</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="57"/>
     </row>
     <row r="5" customFormat="false" ht="184.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="47"/>
       <c r="Q6" s="0" t="s">
         <v>124</v>
       </c>
@@ -28493,10 +28305,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="47" t="s">
         <v>106</v>
       </c>
       <c r="P7" s="0" t="s">
@@ -28520,10 +28332,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>131</v>
       </c>
       <c r="P8" s="0" t="s">
@@ -28547,104 +28359,104 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="47"/>
     </row>
     <row r="10" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="47" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="47" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="59"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="27" t="s">
         <v>139</v>
       </c>
     </row>

--- a/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
+++ b/Organización/Métricas y monitoreo/Plan_Métricas_aaaa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos de Medición" sheetId="1" state="visible" r:id="rId2"/>
@@ -198,19 +198,19 @@
     <t>El análisis se hara en base a la grafica de Desviación</t>
   </si>
   <si>
-    <t>Si la desviacion es de 0% a 15%</t>
+    <t>Si la desviacion es de 0% a 100%</t>
   </si>
   <si>
     <t>Se continua con el seguimiento</t>
   </si>
   <si>
-    <t>Si la desvacion es mayor al 15% y menor o igual a 30%</t>
+    <t>Si la desvacion es menor a 0% y mayor o igual a -10%</t>
   </si>
   <si>
     <t>Se monitorea y analiza con dirección, se toman acciones para reducir la desviación</t>
   </si>
   <si>
-    <t>Si la desviación es menor que 0 o Si la desviacion es mayor a 30% </t>
+    <t>Si la desviación es menor que -10% </t>
   </si>
   <si>
     <t>Se analiza con direccion para tomar medidas inmeditas para corregir la desviacion y considerar actualizar la estimación del servicio</t>
@@ -1320,11 +1320,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="74157567"/>
-        <c:axId val="72440041"/>
+        <c:axId val="88704240"/>
+        <c:axId val="72829875"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74157567"/>
+        <c:axId val="88704240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,14 +1341,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72440041"/>
+        <c:crossAx val="72829875"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72440041"/>
+        <c:axId val="72829875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1398,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74157567"/>
+        <c:crossAx val="88704240"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -1739,11 +1739,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="15829809"/>
-        <c:axId val="82616405"/>
+        <c:axId val="95742415"/>
+        <c:axId val="29894614"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15829809"/>
+        <c:axId val="95742415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,14 +1760,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82616405"/>
+        <c:crossAx val="29894614"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82616405"/>
+        <c:axId val="29894614"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +1817,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15829809"/>
+        <c:crossAx val="95742415"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2164,11 +2164,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="79803306"/>
-        <c:axId val="20112678"/>
+        <c:axId val="50141967"/>
+        <c:axId val="98914208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79803306"/>
+        <c:axId val="50141967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,14 +2185,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20112678"/>
+        <c:crossAx val="98914208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20112678"/>
+        <c:axId val="98914208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2242,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79803306"/>
+        <c:crossAx val="50141967"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -2589,11 +2589,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="74789328"/>
-        <c:axId val="80572125"/>
+        <c:axId val="92569714"/>
+        <c:axId val="79222930"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74789328"/>
+        <c:axId val="92569714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,14 +2610,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80572125"/>
+        <c:crossAx val="79222930"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80572125"/>
+        <c:axId val="79222930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2667,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74789328"/>
+        <c:crossAx val="92569714"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3014,11 +3014,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="2654977"/>
-        <c:axId val="68330409"/>
+        <c:axId val="27118907"/>
+        <c:axId val="92958151"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2654977"/>
+        <c:axId val="27118907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,14 +3035,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68330409"/>
+        <c:crossAx val="92958151"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68330409"/>
+        <c:axId val="92958151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3092,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2654977"/>
+        <c:crossAx val="27118907"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3439,11 +3439,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="58572827"/>
-        <c:axId val="86884965"/>
+        <c:axId val="49683211"/>
+        <c:axId val="78625393"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58572827"/>
+        <c:axId val="49683211"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,14 +3460,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86884965"/>
+        <c:crossAx val="78625393"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86884965"/>
+        <c:axId val="78625393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3517,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="58572827"/>
+        <c:crossAx val="49683211"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:dTable>
@@ -3552,15 +3552,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>336600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3568,8 +3568,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43924320" y="9384120"/>
-        <a:ext cx="5981040" cy="2884680"/>
+        <a:off x="43951320" y="9375120"/>
+        <a:ext cx="5980680" cy="2884320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3582,15 +3582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3152160</xdr:colOff>
+      <xdr:colOff>3178800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2086560</xdr:rowOff>
+      <xdr:rowOff>2077200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3603,8 +3603,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="284040" y="734760"/>
-          <a:ext cx="5979960" cy="2113560"/>
+          <a:off x="311040" y="725760"/>
+          <a:ext cx="5979600" cy="2113200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3619,15 +3619,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3338640</xdr:colOff>
+      <xdr:colOff>3365640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7319160</xdr:colOff>
+      <xdr:colOff>7345800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2042280</xdr:rowOff>
+      <xdr:rowOff>2032920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3640,8 +3640,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6450480" y="792000"/>
-          <a:ext cx="3980520" cy="2012040"/>
+          <a:off x="6477480" y="783000"/>
+          <a:ext cx="3980160" cy="2011680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3661,15 +3661,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>285840</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3677,8 +3677,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43111080" y="9890280"/>
-        <a:ext cx="8101440" cy="3351960"/>
+        <a:off x="43138080" y="9881280"/>
+        <a:ext cx="8101080" cy="3351600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3691,15 +3691,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2061000</xdr:colOff>
+      <xdr:colOff>2087640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2409480</xdr:rowOff>
+      <xdr:rowOff>2400120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3712,8 +3712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="284040" y="925200"/>
-          <a:ext cx="4888800" cy="2436480"/>
+          <a:off x="311040" y="916200"/>
+          <a:ext cx="4888440" cy="2436120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3728,15 +3728,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2081160</xdr:colOff>
+      <xdr:colOff>2108160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>125640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2397960</xdr:rowOff>
+      <xdr:rowOff>2388600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3749,8 +3749,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5193000" y="896760"/>
-          <a:ext cx="5969520" cy="2453400"/>
+          <a:off x="5220000" y="887760"/>
+          <a:ext cx="5969160" cy="2453040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3770,15 +3770,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>336600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3786,8 +3786,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="45423720" y="9107640"/>
-        <a:ext cx="5980680" cy="2885040"/>
+        <a:off x="45450720" y="9098640"/>
+        <a:ext cx="5980320" cy="2884680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3800,15 +3800,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3931200</xdr:colOff>
+      <xdr:colOff>3957840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2343600</xdr:rowOff>
+      <xdr:rowOff>2334240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3821,8 +3821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="284040" y="772920"/>
-          <a:ext cx="6759000" cy="2370600"/>
+          <a:off x="311040" y="763920"/>
+          <a:ext cx="6758640" cy="2370240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3837,15 +3837,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4595760</xdr:colOff>
+      <xdr:colOff>4622760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8395200</xdr:colOff>
+      <xdr:colOff>8421840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2321280</xdr:rowOff>
+      <xdr:rowOff>2311920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3858,8 +3858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7707600" y="687240"/>
-          <a:ext cx="3799440" cy="2433960"/>
+          <a:off x="7734600" y="678240"/>
+          <a:ext cx="3799080" cy="2433600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3879,15 +3879,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>336600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3895,8 +3895,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42463800" y="9326880"/>
-        <a:ext cx="5981040" cy="2884680"/>
+        <a:off x="42490800" y="9317880"/>
+        <a:ext cx="5980680" cy="2884320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3909,15 +3909,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2087640</xdr:colOff>
+      <xdr:colOff>2114280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2381760</xdr:rowOff>
+      <xdr:rowOff>2372400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3930,8 +3930,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="284040" y="925200"/>
-          <a:ext cx="4915440" cy="2408760"/>
+          <a:off x="311040" y="916200"/>
+          <a:ext cx="4915080" cy="2408400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3946,15 +3946,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2112120</xdr:colOff>
+      <xdr:colOff>2139120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6261480</xdr:colOff>
+      <xdr:colOff>6288120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2396520</xdr:rowOff>
+      <xdr:rowOff>2387160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3967,8 +3967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5223960" y="906120"/>
-          <a:ext cx="4149360" cy="2442600"/>
+          <a:off x="5250960" y="897120"/>
+          <a:ext cx="4149000" cy="2442240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3988,15 +3988,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>336600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4004,8 +4004,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41981400" y="9248760"/>
-        <a:ext cx="5980680" cy="2884680"/>
+        <a:off x="42008400" y="9239760"/>
+        <a:ext cx="5980320" cy="2884320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4018,15 +4018,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>871560</xdr:colOff>
+      <xdr:colOff>898560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2480040</xdr:colOff>
+      <xdr:colOff>2506680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2402640</xdr:rowOff>
+      <xdr:rowOff>2393280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4039,8 +4039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1074600" y="734760"/>
-          <a:ext cx="4517280" cy="2429640"/>
+          <a:off x="1101600" y="725760"/>
+          <a:ext cx="4516920" cy="2429280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4060,15 +4060,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>336600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4076,8 +4076,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="42260760" y="9163080"/>
-        <a:ext cx="5980680" cy="2884680"/>
+        <a:off x="42287760" y="9154080"/>
+        <a:ext cx="5980320" cy="2884320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4090,15 +4090,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:colOff>555840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1956600</xdr:colOff>
+      <xdr:colOff>1983240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2318400</xdr:rowOff>
+      <xdr:rowOff>2309040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4111,8 +4111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="731880" y="763200"/>
-          <a:ext cx="4336560" cy="2316960"/>
+          <a:off x="758880" y="754200"/>
+          <a:ext cx="4336200" cy="2316600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4132,15 +4132,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3375720</xdr:colOff>
+      <xdr:colOff>3402360</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1648440</xdr:rowOff>
+      <xdr:rowOff>1639080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4153,8 +4153,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="744120"/>
-          <a:ext cx="3294720" cy="1666080"/>
+          <a:off x="108000" y="735120"/>
+          <a:ext cx="3294360" cy="1665720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4169,15 +4169,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>804960</xdr:colOff>
+      <xdr:colOff>831960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4394880</xdr:colOff>
+      <xdr:colOff>4421520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1751760</xdr:rowOff>
+      <xdr:rowOff>1742400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4190,8 +4190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5999760" y="734760"/>
-          <a:ext cx="3589920" cy="1778760"/>
+          <a:off x="6026760" y="725760"/>
+          <a:ext cx="3589560" cy="1778400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4211,15 +4211,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>432360</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2187720</xdr:rowOff>
+      <xdr:rowOff>2178360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4232,8 +4232,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="906120"/>
-          <a:ext cx="4492080" cy="2214720"/>
+          <a:off x="108000" y="897120"/>
+          <a:ext cx="4491720" cy="2214360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4460,8 +4460,8 @@
   </sheetPr>
   <dimension ref="1:47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25065,7 +25065,7 @@
       </c>
       <c r="C21" s="29"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B22" s="30" t="s">
         <v>53</v>
       </c>
@@ -25077,7 +25077,7 @@
       <c r="AC22" s="0"/>
       <c r="AD22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="32" t="s">
         <v>55</v>
       </c>
@@ -25089,7 +25089,7 @@
       <c r="AC23" s="0"/>
       <c r="AD23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="33" t="s">
         <v>57</v>
       </c>
@@ -25359,7 +25359,7 @@
   <dimension ref="B1:AD47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25597,7 +25597,7 @@
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B21" s="30" t="s">
         <v>53</v>
       </c>
@@ -25609,7 +25609,7 @@
       <c r="AC21" s="0"/>
       <c r="AD21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="32" t="s">
         <v>55</v>
       </c>
@@ -25621,7 +25621,7 @@
       <c r="AC22" s="0"/>
       <c r="AD22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="33" t="s">
         <v>57</v>
       </c>
@@ -28237,8 +28237,8 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
